--- a/Anova tables.xlsx
+++ b/Anova tables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/OCS_microarthropods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D220CB4-CDFE-BC4C-AB9F-A3F6A0BF95CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941F8F12-F024-2F4E-B111-7549A1D0BFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="-21100" windowWidth="24840" windowHeight="20580" activeTab="1" xr2:uid="{11F10D1D-61B6-B04A-968F-0DEA3959953D}"/>
+    <workbookView xWindow="5960" yWindow="760" windowWidth="24840" windowHeight="20480" xr2:uid="{11F10D1D-61B6-B04A-968F-0DEA3959953D}"/>
   </bookViews>
   <sheets>
     <sheet name="Soil Health Indicators" sheetId="1" r:id="rId1"/>
-    <sheet name="Soil Microarthopods" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Soil Microarthopods" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="270">
   <si>
     <t>P-value</t>
   </si>
@@ -619,6 +620,234 @@
   </si>
   <si>
     <t>0.0723**</t>
+  </si>
+  <si>
+    <t>total organisms</t>
+  </si>
+  <si>
+    <t>nbinom1</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>total_collembola</t>
+  </si>
+  <si>
+    <t>isotomidae</t>
+  </si>
+  <si>
+    <t>onychiuridae</t>
+  </si>
+  <si>
+    <t>tweedie</t>
+  </si>
+  <si>
+    <t>1.28 (b)</t>
+  </si>
+  <si>
+    <t>1.91 (ab)</t>
+  </si>
+  <si>
+    <t>4.97 (a)</t>
+  </si>
+  <si>
+    <t>2.38 (ab)</t>
+  </si>
+  <si>
+    <t>Sminthuridae</t>
+  </si>
+  <si>
+    <t>Total mites</t>
+  </si>
+  <si>
+    <t>26 (a)</t>
+  </si>
+  <si>
+    <t>17.1 (b)</t>
+  </si>
+  <si>
+    <t>26.5 (a)</t>
+  </si>
+  <si>
+    <t>54.1 (a)</t>
+  </si>
+  <si>
+    <t>24.9 (bc)</t>
+  </si>
+  <si>
+    <t>27.9 (ab)</t>
+  </si>
+  <si>
+    <t>Astigmata</t>
+  </si>
+  <si>
+    <t>13.93 (a)</t>
+  </si>
+  <si>
+    <t>2.57 (b)</t>
+  </si>
+  <si>
+    <t>7.18 (ab)</t>
+  </si>
+  <si>
+    <t>4.17 (ab)</t>
+  </si>
+  <si>
+    <t>9.98 (a)</t>
+  </si>
+  <si>
+    <t>15.06 (a)</t>
+  </si>
+  <si>
+    <t>8.109 (a)</t>
+  </si>
+  <si>
+    <t>5.9 (a)</t>
+  </si>
+  <si>
+    <t>9.2 (a)</t>
+  </si>
+  <si>
+    <t>5.72 (b)</t>
+  </si>
+  <si>
+    <t>Mesostigmata</t>
+  </si>
+  <si>
+    <t>12.36 (a)</t>
+  </si>
+  <si>
+    <t>5.67 (ab)</t>
+  </si>
+  <si>
+    <t>4.76 (ab)</t>
+  </si>
+  <si>
+    <t>1.87 (b)</t>
+  </si>
+  <si>
+    <t>3.43 (a)</t>
+  </si>
+  <si>
+    <t>3.07 (a)</t>
+  </si>
+  <si>
+    <t>5.71 (a)</t>
+  </si>
+  <si>
+    <t>5.13 (a)</t>
+  </si>
+  <si>
+    <t>Oribatidea</t>
+  </si>
+  <si>
+    <t>Phoretic Hypopi</t>
+  </si>
+  <si>
+    <t>5.156 (a)</t>
+  </si>
+  <si>
+    <t>6.235 (a)</t>
+  </si>
+  <si>
+    <t>12.851 (a)</t>
+  </si>
+  <si>
+    <t>23.763 (a)</t>
+  </si>
+  <si>
+    <t>8.95 (a)</t>
+  </si>
+  <si>
+    <t>3.94 (ab)</t>
+  </si>
+  <si>
+    <t>3.09 (b)</t>
+  </si>
+  <si>
+    <t>37.5*</t>
+  </si>
+  <si>
+    <t>34.7*</t>
+  </si>
+  <si>
+    <t>28.2*</t>
+  </si>
+  <si>
+    <t>32.8*</t>
+  </si>
+  <si>
+    <t>95.7 (A)</t>
+  </si>
+  <si>
+    <t>40.34 (B)</t>
+  </si>
+  <si>
+    <t>0.671 (b)</t>
+  </si>
+  <si>
+    <t>2.026 (ab)</t>
+  </si>
+  <si>
+    <t>5.563 (a)</t>
+  </si>
+  <si>
+    <t>1.275 (b)</t>
+  </si>
+  <si>
+    <t>4.459 (a)</t>
+  </si>
+  <si>
+    <t>2.443 (a)</t>
+  </si>
+  <si>
+    <t>1.801(a)</t>
+  </si>
+  <si>
+    <t>4.370 (a)</t>
+  </si>
+  <si>
+    <t>13.7 (a)*</t>
+  </si>
+  <si>
+    <t>15.7 (a)*</t>
+  </si>
+  <si>
+    <t>14.9 (a)*</t>
+  </si>
+  <si>
+    <t>12.1 (c)*</t>
+  </si>
+  <si>
+    <t>1.69 (b)*</t>
+  </si>
+  <si>
+    <t>2.78 (a)*</t>
+  </si>
+  <si>
+    <t>0.652 (b)*</t>
+  </si>
+  <si>
+    <t>2.89 (ab)*</t>
+  </si>
+  <si>
+    <t>1.010 (b)*</t>
+  </si>
+  <si>
+    <t>1.855 (b)*</t>
+  </si>
+  <si>
+    <t>4.89 (a)**</t>
+  </si>
+  <si>
+    <t>13.36 (A)</t>
+  </si>
+  <si>
+    <t>2.21 (B)</t>
+  </si>
+  <si>
+    <t>Identity</t>
   </si>
 </sst>
 </file>
@@ -629,7 +858,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -832,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -987,9 +1216,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1018,49 +1244,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1399,9 +1592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43174A3-6D01-CF4D-9192-EEA8455A356E}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A33"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1612,7 +1805,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>46</v>
@@ -1633,43 +1826,43 @@
         <v>35</v>
       </c>
       <c r="N3" s="50" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="O3" s="50" t="s">
         <v>35</v>
       </c>
       <c r="P3" s="50" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="Q3" s="50" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="R3" s="50" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="T3" s="50" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="U3" s="50" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="V3" s="50" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="W3" s="50" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="X3" s="50" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="Y3" s="50" t="s">
         <v>35</v>
       </c>
       <c r="Z3" s="50" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -1769,7 +1962,7 @@
       <c r="L5" s="35"/>
       <c r="M5" s="35"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="54"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
@@ -2024,58 +2217,58 @@
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
     </row>
     <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="35"/>
@@ -2264,9 +2457,9 @@
       <c r="U13" s="18"/>
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
     </row>
     <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -2483,7 +2676,7 @@
       <c r="H17" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="65" t="s">
         <v>122</v>
       </c>
       <c r="J17" s="24" t="s">
@@ -2642,9 +2835,9 @@
       <c r="U19" s="11"/>
       <c r="V19" s="31"/>
       <c r="W19" s="34"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
     </row>
     <row r="20" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -3377,7 +3570,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="41"/>
       <c r="C31" s="18"/>
       <c r="D31" s="42"/>
@@ -3400,167 +3593,167 @@
       <c r="U31" s="18"/>
       <c r="V31" s="42"/>
       <c r="W31" s="18"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="64"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
     </row>
     <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="66">
+      <c r="B32" s="9">
         <v>0.39</v>
       </c>
       <c r="C32">
         <v>0.39</v>
       </c>
-      <c r="D32" s="68">
+      <c r="D32" s="25">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E32" s="69">
+      <c r="E32" s="14">
         <v>0.20300000000000001</v>
       </c>
-      <c r="F32" s="67" t="s">
+      <c r="F32" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="G32" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I32" s="71">
+      <c r="I32" s="21">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="J32" s="73">
+      <c r="J32" s="24">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="K32" s="71">
+      <c r="K32" s="21">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="L32" s="74">
+      <c r="L32" s="29">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="M32" s="69">
+      <c r="M32" s="14">
         <v>5.01</v>
       </c>
-      <c r="N32" s="71" t="s">
+      <c r="N32" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="O32" s="75">
+      <c r="O32" s="39">
         <v>476.41399999999999</v>
       </c>
-      <c r="P32" s="76">
+      <c r="P32" s="31">
         <v>8.24</v>
       </c>
-      <c r="Q32" s="69">
+      <c r="Q32" s="14">
         <v>1.51</v>
       </c>
-      <c r="R32" s="68">
+      <c r="R32" s="25">
         <v>33.04</v>
       </c>
-      <c r="S32" s="77">
+      <c r="S32" s="11">
         <v>163.69999999999999</v>
       </c>
-      <c r="T32" s="78">
+      <c r="T32" s="35">
         <v>0.41199999999999998</v>
       </c>
-      <c r="U32" s="69">
+      <c r="U32" s="14">
         <v>3.26</v>
       </c>
-      <c r="V32" s="69">
+      <c r="V32" s="14">
         <v>0.28399999999999997</v>
       </c>
-      <c r="W32" s="69" t="s">
+      <c r="W32" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="X32" s="78">
+      <c r="X32" s="35">
         <v>1964.95</v>
       </c>
       <c r="Y32" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="Z32" s="78">
+      <c r="Z32" s="35">
         <v>2.86</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="66">
+      <c r="B33" s="9">
         <v>0.43</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="64">
         <v>0.38690000000000002</v>
       </c>
-      <c r="D33" s="68">
+      <c r="D33" s="25">
         <v>0.182</v>
       </c>
-      <c r="E33" s="69">
+      <c r="E33" s="14">
         <v>0.21099999999999999</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="68" t="s">
+      <c r="H33" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I33" s="71">
+      <c r="I33" s="21">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J33" s="73">
+      <c r="J33" s="24">
         <v>1.66E-2</v>
       </c>
-      <c r="K33" s="71">
+      <c r="K33" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="L33" s="74">
+      <c r="L33" s="29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M33" s="69">
+      <c r="M33" s="14">
         <v>4.72</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="O33" s="75">
+      <c r="O33" s="39">
         <v>484.57</v>
       </c>
-      <c r="P33" s="76">
+      <c r="P33" s="31">
         <v>8.09</v>
       </c>
-      <c r="Q33" s="69">
+      <c r="Q33" s="14">
         <v>1.33</v>
       </c>
-      <c r="R33" s="68">
+      <c r="R33" s="25">
         <v>31.05</v>
       </c>
-      <c r="S33" s="77">
+      <c r="S33" s="11">
         <v>130.19999999999999</v>
       </c>
-      <c r="T33" s="78">
+      <c r="T33" s="35">
         <v>0.52</v>
       </c>
-      <c r="U33" s="69">
+      <c r="U33" s="14">
         <v>3.72</v>
       </c>
-      <c r="V33" s="69">
+      <c r="V33" s="14">
         <v>0.22</v>
       </c>
-      <c r="W33" s="69" t="s">
+      <c r="W33" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="X33" s="78">
+      <c r="X33" s="35">
         <v>1727.95</v>
       </c>
-      <c r="Y33" s="79" t="s">
+      <c r="Y33" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="Z33" s="78">
+      <c r="Z33" s="35">
         <v>3.2</v>
       </c>
     </row>
@@ -3570,173 +3763,907 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14B3D76-7EB3-244F-8459-BDA2CA85D080}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D13954B-F096-9243-BDCC-DEEAFA1248CF}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="13"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.87</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.49</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10.9</v>
+      </c>
+      <c r="D11" s="25">
+        <v>7.3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1.77</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="I11" s="11">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
+        <v>42.8</v>
+      </c>
+      <c r="C12" s="14">
+        <v>12.8</v>
+      </c>
+      <c r="D12" s="25">
+        <v>6.92</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3.04</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4.99</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="41"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="45"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="9">
+        <v>51.2</v>
+      </c>
+      <c r="C15" s="14">
+        <v>11.6</v>
+      </c>
+      <c r="D15" s="25">
+        <v>6.98</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="11">
+        <v>27.2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>6.45</v>
+      </c>
+      <c r="I15" s="11">
+        <v>6.52</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="9">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C16" s="14">
+        <v>10.7</v>
+      </c>
+      <c r="D16" s="25">
+        <v>6.61</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="11">
+        <v>19.2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>10.4</v>
+      </c>
+      <c r="I16" s="11">
+        <v>4.17</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="14">
+        <v>11.4</v>
+      </c>
+      <c r="D17" s="25">
+        <v>6.24</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="11">
+        <v>20.9</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I17" s="11">
+        <v>5.21</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="14">
+        <v>13.9</v>
+      </c>
+      <c r="D18" s="25">
+        <v>8.86</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="11">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H18" s="11">
+        <v>9.07</v>
+      </c>
+      <c r="I18" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="45"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="9">
+        <v>39.1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>10.24</v>
+      </c>
+      <c r="D22" s="25">
+        <v>10.73</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="9">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C23" s="14">
+        <v>15.31</v>
+      </c>
+      <c r="D23" s="25">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="14">
+        <v>10.47</v>
+      </c>
+      <c r="D24" s="25">
+        <v>6.49</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="9">
+        <v>42.8</v>
+      </c>
+      <c r="C25" s="14">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="D25" s="25">
+        <v>8.39</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="9">
+        <v>67</v>
+      </c>
+      <c r="C27" s="14">
+        <v>10.24</v>
+      </c>
+      <c r="D27" s="25">
+        <v>4.53</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="9">
+        <v>41.4</v>
+      </c>
+      <c r="C28" s="14">
+        <v>15.31</v>
+      </c>
+      <c r="D28" s="25">
+        <v>9.35</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="9">
+        <v>42.9</v>
+      </c>
+      <c r="C29" s="14">
+        <v>10.47</v>
+      </c>
+      <c r="D29" s="25">
+        <v>6.01</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-    </row>
-    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="65" t="s">
+      <c r="B30" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="14">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="D30" s="25">
+        <v>9.35</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="62"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="65" t="s">
+      <c r="B32" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="66">
+        <v>29.41</v>
+      </c>
+      <c r="D32" s="25">
+        <v>23.91</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1.58</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12">
+        <v>59</v>
+      </c>
+      <c r="H32" s="67">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I32" s="67">
+        <v>8.06</v>
+      </c>
+      <c r="K32" s="67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>75</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="64">
+        <v>16.28</v>
+      </c>
+      <c r="D33" s="25">
+        <v>11.7</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="12">
+        <v>22.89</v>
+      </c>
+      <c r="H33" s="67">
+        <v>7.69</v>
+      </c>
+      <c r="I33" s="67">
+        <v>4.67</v>
+      </c>
+      <c r="K33" s="67" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Anova tables.xlsx
+++ b/Anova tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/OCS_microarthropods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941F8F12-F024-2F4E-B111-7549A1D0BFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA0F884-AB32-244A-8F09-ACE4F45FC87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="760" windowWidth="24840" windowHeight="20480" xr2:uid="{11F10D1D-61B6-B04A-968F-0DEA3959953D}"/>
+    <workbookView xWindow="-14720" yWindow="-28800" windowWidth="68800" windowHeight="28800" activeTab="2" xr2:uid="{11F10D1D-61B6-B04A-968F-0DEA3959953D}"/>
   </bookViews>
   <sheets>
     <sheet name="Soil Health Indicators" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="243">
   <si>
     <t>P-value</t>
   </si>
@@ -97,24 +97,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>soc</t>
-  </si>
-  <si>
-    <t>total_c</t>
-  </si>
-  <si>
-    <t>total_n</t>
-  </si>
-  <si>
-    <t>pred_soil_protein</t>
-  </si>
-  <si>
-    <t>respiration</t>
-  </si>
-  <si>
-    <t>active_carbon</t>
-  </si>
-  <si>
     <t>ph</t>
   </si>
   <si>
@@ -133,15 +115,6 @@
     <t>341 (a)</t>
   </si>
   <si>
-    <t>5.43 (ab)</t>
-  </si>
-  <si>
-    <t>5.21 (b)</t>
-  </si>
-  <si>
-    <t>5.23 (b)</t>
-  </si>
-  <si>
     <t>Gamma</t>
   </si>
   <si>
@@ -172,48 +145,12 @@
     <t>501 (b)</t>
   </si>
   <si>
-    <t>1.78 (b)</t>
-  </si>
-  <si>
     <t>soil_texture_clay (%)</t>
   </si>
   <si>
     <t>Logit</t>
   </si>
   <si>
-    <t>0.476 (a)</t>
-  </si>
-  <si>
-    <t>0.255 (b)</t>
-  </si>
-  <si>
-    <t>0.206 (a)</t>
-  </si>
-  <si>
-    <t>0.281 (a)</t>
-  </si>
-  <si>
-    <t>0.240 (ab)</t>
-  </si>
-  <si>
-    <t>0.189 (ab)</t>
-  </si>
-  <si>
-    <t>0.141 (b)</t>
-  </si>
-  <si>
-    <t>0.315 (a)</t>
-  </si>
-  <si>
-    <t>0.290 (a)</t>
-  </si>
-  <si>
-    <t>0.241 (a)</t>
-  </si>
-  <si>
-    <t>0.194 (a)</t>
-  </si>
-  <si>
     <t>LSD</t>
   </si>
   <si>
@@ -316,15 +253,6 @@
     <t>330*</t>
   </si>
   <si>
-    <t>0.42*,**</t>
-  </si>
-  <si>
-    <t>0.41**</t>
-  </si>
-  <si>
-    <t>0.42**</t>
-  </si>
-  <si>
     <t>163.2812 (B)</t>
   </si>
   <si>
@@ -349,168 +277,6 @@
     <t>318 (a)*,**</t>
   </si>
   <si>
-    <t>0.152*,**</t>
-  </si>
-  <si>
-    <t>0.156*,**</t>
-  </si>
-  <si>
-    <t>0.137*,**</t>
-  </si>
-  <si>
-    <t>0.185,**</t>
-  </si>
-  <si>
-    <t>0.142*,**</t>
-  </si>
-  <si>
-    <t>0.173*,**</t>
-  </si>
-  <si>
-    <t>0.144*,**</t>
-  </si>
-  <si>
-    <t>0.14*,**</t>
-  </si>
-  <si>
-    <t>0.122*,**</t>
-  </si>
-  <si>
-    <t>0.164*,**</t>
-  </si>
-  <si>
-    <t>0.161*,**</t>
-  </si>
-  <si>
-    <t>0.154*,**</t>
-  </si>
-  <si>
-    <t>0.173**</t>
-  </si>
-  <si>
-    <t>0.208**</t>
-  </si>
-  <si>
-    <t>0.2327 (A)</t>
-  </si>
-  <si>
-    <t>0.057 (B)</t>
-  </si>
-  <si>
-    <t>0.033**</t>
-  </si>
-  <si>
-    <t>0.032**</t>
-  </si>
-  <si>
-    <t>0.031**</t>
-  </si>
-  <si>
-    <t>0.030**</t>
-  </si>
-  <si>
-    <t>0.0319**</t>
-  </si>
-  <si>
-    <t>0.0312**</t>
-  </si>
-  <si>
-    <t>0.019**</t>
-  </si>
-  <si>
-    <t>0.02**</t>
-  </si>
-  <si>
-    <t>0.025**</t>
-  </si>
-  <si>
-    <t>0.022**</t>
-  </si>
-  <si>
-    <t>0.021**</t>
-  </si>
-  <si>
-    <t>0.023**</t>
-  </si>
-  <si>
-    <t>0.0214**</t>
-  </si>
-  <si>
-    <t>0.0216**</t>
-  </si>
-  <si>
-    <t>0.024**</t>
-  </si>
-  <si>
-    <t>0.00194**</t>
-  </si>
-  <si>
-    <t>0.00188**</t>
-  </si>
-  <si>
-    <t>0.00181**</t>
-  </si>
-  <si>
-    <t>0.00182**</t>
-  </si>
-  <si>
-    <t>0.0019**</t>
-  </si>
-  <si>
-    <t>0.00185**</t>
-  </si>
-  <si>
-    <t>0.00197**</t>
-  </si>
-  <si>
-    <t>5.53 **</t>
-  </si>
-  <si>
-    <t>0.813**</t>
-  </si>
-  <si>
-    <t>0.722*,**</t>
-  </si>
-  <si>
-    <t>0.718*,**</t>
-  </si>
-  <si>
-    <t>0.747**</t>
-  </si>
-  <si>
-    <t>0.774**</t>
-  </si>
-  <si>
-    <t>0.726*,**</t>
-  </si>
-  <si>
-    <t>0.768**</t>
-  </si>
-  <si>
-    <t>0.731*,**</t>
-  </si>
-  <si>
-    <t>0.827**</t>
-  </si>
-  <si>
-    <t>0.857**</t>
-  </si>
-  <si>
-    <t>0.676*,**</t>
-  </si>
-  <si>
-    <t>0.704**</t>
-  </si>
-  <si>
-    <t>0.827 (A)</t>
-  </si>
-  <si>
-    <t>0.486 (B)</t>
-  </si>
-  <si>
-    <t>5.78 (a)**</t>
-  </si>
-  <si>
     <t>536*</t>
   </si>
   <si>
@@ -520,33 +286,6 @@
     <t>573 (a)*,**</t>
   </si>
   <si>
-    <t>8.25**</t>
-  </si>
-  <si>
-    <t>8.26**</t>
-  </si>
-  <si>
-    <t>8.256**</t>
-  </si>
-  <si>
-    <t>3.55**</t>
-  </si>
-  <si>
-    <t>2.15**</t>
-  </si>
-  <si>
-    <t>2.42 (a) *,**</t>
-  </si>
-  <si>
-    <t>1.94**</t>
-  </si>
-  <si>
-    <t>2.76**</t>
-  </si>
-  <si>
-    <t>0.529 (a)*</t>
-  </si>
-  <si>
     <t>1.58*,**</t>
   </si>
   <si>
@@ -583,45 +322,12 @@
     <t>1.85 (B)</t>
   </si>
   <si>
-    <t>0.0716**</t>
-  </si>
-  <si>
-    <t>0.0724**</t>
-  </si>
-  <si>
-    <t>0.0751**</t>
-  </si>
-  <si>
-    <t>0.0739**</t>
-  </si>
-  <si>
-    <t>0.0667 (b)**</t>
-  </si>
-  <si>
-    <t>0.0804 (a)**</t>
-  </si>
-  <si>
-    <t>0.0835*,**</t>
-  </si>
-  <si>
     <t>0.071 (A)</t>
   </si>
   <si>
-    <t>0.0506 (B)</t>
-  </si>
-  <si>
     <t>0.066**</t>
   </si>
   <si>
-    <t>0.0634**</t>
-  </si>
-  <si>
-    <t>0.0653**</t>
-  </si>
-  <si>
-    <t>0.0723**</t>
-  </si>
-  <si>
     <t>total organisms</t>
   </si>
   <si>
@@ -643,18 +349,6 @@
     <t>tweedie</t>
   </si>
   <si>
-    <t>1.28 (b)</t>
-  </si>
-  <si>
-    <t>1.91 (ab)</t>
-  </si>
-  <si>
-    <t>4.97 (a)</t>
-  </si>
-  <si>
-    <t>2.38 (ab)</t>
-  </si>
-  <si>
     <t>Sminthuridae</t>
   </si>
   <si>
@@ -766,48 +460,6 @@
     <t>3.09 (b)</t>
   </si>
   <si>
-    <t>37.5*</t>
-  </si>
-  <si>
-    <t>34.7*</t>
-  </si>
-  <si>
-    <t>28.2*</t>
-  </si>
-  <si>
-    <t>32.8*</t>
-  </si>
-  <si>
-    <t>95.7 (A)</t>
-  </si>
-  <si>
-    <t>40.34 (B)</t>
-  </si>
-  <si>
-    <t>0.671 (b)</t>
-  </si>
-  <si>
-    <t>2.026 (ab)</t>
-  </si>
-  <si>
-    <t>5.563 (a)</t>
-  </si>
-  <si>
-    <t>1.275 (b)</t>
-  </si>
-  <si>
-    <t>4.459 (a)</t>
-  </si>
-  <si>
-    <t>2.443 (a)</t>
-  </si>
-  <si>
-    <t>1.801(a)</t>
-  </si>
-  <si>
-    <t>4.370 (a)</t>
-  </si>
-  <si>
     <t>13.7 (a)*</t>
   </si>
   <si>
@@ -848,6 +500,273 @@
   </si>
   <si>
     <t>Identity</t>
+  </si>
+  <si>
+    <t>41**</t>
+  </si>
+  <si>
+    <t>42*,**</t>
+  </si>
+  <si>
+    <t>42**</t>
+  </si>
+  <si>
+    <t>14*,**</t>
+  </si>
+  <si>
+    <t>17*,**</t>
+  </si>
+  <si>
+    <t>15*,**</t>
+  </si>
+  <si>
+    <t>16*,**</t>
+  </si>
+  <si>
+    <t>19**</t>
+  </si>
+  <si>
+    <t>12*,**</t>
+  </si>
+  <si>
+    <t>17**</t>
+  </si>
+  <si>
+    <t>21**</t>
+  </si>
+  <si>
+    <t>23 (A)</t>
+  </si>
+  <si>
+    <t>6 (B)</t>
+  </si>
+  <si>
+    <t>1.9**</t>
+  </si>
+  <si>
+    <t>2.0**</t>
+  </si>
+  <si>
+    <t>3.1**</t>
+  </si>
+  <si>
+    <t>3.2**</t>
+  </si>
+  <si>
+    <t>3.3**</t>
+  </si>
+  <si>
+    <t>3.0**</t>
+  </si>
+  <si>
+    <t>2.1**</t>
+  </si>
+  <si>
+    <t>2.2**</t>
+  </si>
+  <si>
+    <t>2.4**</t>
+  </si>
+  <si>
+    <t>2.3**</t>
+  </si>
+  <si>
+    <t>2.5**</t>
+  </si>
+  <si>
+    <t>0.19**</t>
+  </si>
+  <si>
+    <t>0.20**</t>
+  </si>
+  <si>
+    <t>0.18**</t>
+  </si>
+  <si>
+    <t>pred_soil_protein (mg/g)</t>
+  </si>
+  <si>
+    <t>Respiration CO2 (mg/g)</t>
+  </si>
+  <si>
+    <t>0.83 (A)</t>
+  </si>
+  <si>
+    <t>0.49 (B)</t>
+  </si>
+  <si>
+    <t>0.70**</t>
+  </si>
+  <si>
+    <t>0.68*,**</t>
+  </si>
+  <si>
+    <t>0.86**</t>
+  </si>
+  <si>
+    <t>0.83**</t>
+  </si>
+  <si>
+    <t>0.73*,**</t>
+  </si>
+  <si>
+    <t>0.77**</t>
+  </si>
+  <si>
+    <t>0.75**</t>
+  </si>
+  <si>
+    <t>0.72*,**</t>
+  </si>
+  <si>
+    <t>0.81**</t>
+  </si>
+  <si>
+    <t>active_carbon (ppm)</t>
+  </si>
+  <si>
+    <t>soc (%)</t>
+  </si>
+  <si>
+    <t>total_c (%)</t>
+  </si>
+  <si>
+    <t>total_n (%)</t>
+  </si>
+  <si>
+    <t>5.5 **</t>
+  </si>
+  <si>
+    <t>5.8 (a)**</t>
+  </si>
+  <si>
+    <t>5.4 (ab)</t>
+  </si>
+  <si>
+    <t>5.2 (b)</t>
+  </si>
+  <si>
+    <t>8.3**</t>
+  </si>
+  <si>
+    <t>1.8 (b)</t>
+  </si>
+  <si>
+    <t>2.4 (a) *,**</t>
+  </si>
+  <si>
+    <t>3.6**</t>
+  </si>
+  <si>
+    <t>2.8**</t>
+  </si>
+  <si>
+    <t>values were log transformed in model, these are raw means</t>
+  </si>
+  <si>
+    <t>0.48 (a)</t>
+  </si>
+  <si>
+    <t>0.53 (a)*</t>
+  </si>
+  <si>
+    <t>0.21 (a)</t>
+  </si>
+  <si>
+    <t>0.26 (b)</t>
+  </si>
+  <si>
+    <t>0.28 (a)</t>
+  </si>
+  <si>
+    <t>0.24 (ab)</t>
+  </si>
+  <si>
+    <t>0.14 (b)</t>
+  </si>
+  <si>
+    <t>0.19 (ab)</t>
+  </si>
+  <si>
+    <t>0.32 (a)</t>
+  </si>
+  <si>
+    <t>0.19 (a)</t>
+  </si>
+  <si>
+    <t>0.24 (a)</t>
+  </si>
+  <si>
+    <t>0.29 (a)</t>
+  </si>
+  <si>
+    <t>0.067 (b)**</t>
+  </si>
+  <si>
+    <t>0.080 (a)**</t>
+  </si>
+  <si>
+    <t>0.072**</t>
+  </si>
+  <si>
+    <t>0.075**</t>
+  </si>
+  <si>
+    <t>0.074**</t>
+  </si>
+  <si>
+    <t>0.063**</t>
+  </si>
+  <si>
+    <t>0.065**</t>
+  </si>
+  <si>
+    <t>0.084*,**</t>
+  </si>
+  <si>
+    <t>0.051 (B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significance levels from the ANOVAs performed on the soil health indicators with means (P &lt; 0.05, bolded). Means with the same letters are not significantly different (Fisher’s LSD, P &gt; 0.05). Lower case letters are used for displaying differences between systems.  Upper case letters are used for displaying differences between Alleyway and continuous corn means only.   Means that are significantly different from the alleyway mean for each soil health indicator are marked with an asterisk. Means that are significantly different from the continuous corn mean for each soil health indicator are marked with two asterisks. Upper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significance levels from the ANOVAs performed on the soil microarthopods  with means (P &lt; 0.05, bolded). Means with the same letters are not significantly different (Fisher’s LSD, P &gt; 0.05). Lower case letters are used for displaying differences between systems.  Upper case letters are used for displaying differences between Alleyway and continuous corn means only.   Means that are significantly different from the alleyway mean for each soil health indicator are marked with an asterisk. Means that are significantly different from the continuous corn mean for each soil health indicator are marked with two asterisks. Upper </t>
+  </si>
+  <si>
+    <t>38*</t>
+  </si>
+  <si>
+    <t>35*</t>
+  </si>
+  <si>
+    <t>33*</t>
+  </si>
+  <si>
+    <t>28*</t>
+  </si>
+  <si>
+    <t>96 (A)</t>
+  </si>
+  <si>
+    <t>40 (B)</t>
+  </si>
+  <si>
+    <t>1 (b)</t>
+  </si>
+  <si>
+    <t>2 (ab)</t>
+  </si>
+  <si>
+    <t>5 (a)</t>
+  </si>
+  <si>
+    <t>6 (a)</t>
+  </si>
+  <si>
+    <t>2 (a)</t>
+  </si>
+  <si>
+    <t>4 (a)</t>
   </si>
 </sst>
 </file>
@@ -860,7 +779,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -887,8 +806,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,6 +822,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1183,9 +1113,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1254,6 +1181,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1590,362 +1560,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43174A3-6D01-CF4D-9192-EEA8455A356E}">
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB14" sqref="AB14"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" style="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="69" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="69" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="69" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="69" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="69"/>
+    <col min="17" max="17" width="19.83203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="69" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="69" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="69"/>
+    <col min="21" max="21" width="18" style="69" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+      <c r="Y1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="O3" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q3" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="R3" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="S3" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="T3" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="U3" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="V3" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="W3" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="X3" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y3" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="50" t="s">
-        <v>269</v>
+      <c r="B3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="T3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="U3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="V3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="W3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="X3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y3" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="49" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +1948,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="35"/>
     </row>
-    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1985,7 +1958,7 @@
       <c r="C6" s="5">
         <v>0.27</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="25">
         <v>0.28000000000000003</v>
       </c>
       <c r="E6" s="5">
@@ -2055,7 +2028,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2065,7 +2038,7 @@
       <c r="C7" s="5">
         <v>0.94</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="25">
         <v>0.57999999999999996</v>
       </c>
       <c r="E7" s="5">
@@ -2135,7 +2108,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2118,7 @@
       <c r="C8" s="5">
         <v>0.96</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="25">
         <v>0.27</v>
       </c>
       <c r="E8" s="5">
@@ -2215,65 +2188,65 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-    </row>
-    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="35"/>
     </row>
-    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2281,40 +2254,40 @@
         <v>0.4</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.19</v>
+        <v>154</v>
+      </c>
+      <c r="D11" s="34">
+        <v>19</v>
       </c>
       <c r="E11" s="14">
         <v>0.21</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="M11" s="14">
-        <v>5.28</v>
+        <v>5.3</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="O11" s="39">
         <v>516</v>
@@ -2322,38 +2295,38 @@
       <c r="P11" s="30">
         <v>8.1969999999999992</v>
       </c>
-      <c r="Q11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" s="25">
+      <c r="Q11" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="R11" s="31">
         <v>33.700000000000003</v>
       </c>
       <c r="S11" s="11">
         <v>161</v>
       </c>
       <c r="T11" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" s="21">
+        <v>208</v>
+      </c>
+      <c r="U11" s="67">
         <v>3.81</v>
       </c>
       <c r="V11" s="36" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="W11" s="40" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="X11" s="35">
         <v>2067</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="Z11" s="35">
         <v>3.16</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2361,83 +2334,83 @@
         <v>0.39</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0.19</v>
+        <v>155</v>
+      </c>
+      <c r="D12" s="34">
+        <v>19</v>
       </c>
       <c r="E12" s="14">
         <v>0.21</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>147</v>
+        <v>198</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>189</v>
       </c>
       <c r="O12" s="39" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="R12" s="25">
+        <v>202</v>
+      </c>
+      <c r="Q12" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="R12" s="31">
         <v>36.200000000000003</v>
       </c>
       <c r="S12" s="11">
         <v>165</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="U12" s="21">
+        <v>209</v>
+      </c>
+      <c r="U12" s="67">
         <v>3.64</v>
       </c>
       <c r="V12" s="36" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="W12" s="40" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="X12" s="35">
         <v>2174</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="Z12" s="35">
         <v>2.99</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="41"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="42"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="18"/>
       <c r="F13" s="42"/>
       <c r="G13" s="18"/>
@@ -2447,51 +2420,51 @@
       <c r="K13" s="18"/>
       <c r="L13" s="42"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="43"/>
       <c r="P13" s="32"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="42"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="70"/>
       <c r="S13" s="18"/>
       <c r="T13" s="32"/>
-      <c r="U13" s="18"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-    </row>
-    <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="46"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="46"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="47"/>
+      <c r="J14" s="46"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="46"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="47"/>
       <c r="P14" s="33"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="46"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="71"/>
       <c r="S14" s="19"/>
       <c r="T14" s="33"/>
-      <c r="U14" s="19"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="33"/>
       <c r="W14" s="33"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="35"/>
     </row>
-    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2499,79 +2472,79 @@
         <v>0.39</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0.19</v>
+        <v>154</v>
+      </c>
+      <c r="D15" s="34">
+        <v>19</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>126</v>
+        <v>171</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="O15" s="49" t="s">
-        <v>159</v>
+        <v>193</v>
+      </c>
+      <c r="O15" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="P15" s="31">
         <v>8.18</v>
       </c>
-      <c r="Q15" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="R15" s="25">
+      <c r="Q15" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="R15" s="31">
         <v>36.5</v>
       </c>
       <c r="S15" s="11">
         <v>155</v>
       </c>
-      <c r="T15" s="24">
+      <c r="T15" s="25">
         <v>0.46</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="67">
         <v>3.49</v>
       </c>
-      <c r="V15" s="24">
-        <v>0.29699999999999999</v>
+      <c r="V15" s="25">
+        <v>0.3</v>
       </c>
       <c r="W15" s="25" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="X15" s="35">
         <v>2301</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="Z15" s="35">
         <v>3.42</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -2579,79 +2552,79 @@
         <v>0.39</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="25">
-        <v>0.19</v>
+        <v>156</v>
+      </c>
+      <c r="D16" s="34">
+        <v>19</v>
       </c>
       <c r="E16" s="14">
         <v>0.21</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G16" s="11">
         <v>344</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="J16" s="24">
-        <v>1.9E-2</v>
+        <v>171</v>
+      </c>
+      <c r="J16" s="31">
+        <v>1.9</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="O16" s="49" t="s">
-        <v>41</v>
+        <v>192</v>
+      </c>
+      <c r="O16" s="48" t="s">
+        <v>32</v>
       </c>
       <c r="P16" s="31">
         <v>8.2100000000000009</v>
       </c>
-      <c r="Q16" s="14">
-        <v>1.51</v>
-      </c>
-      <c r="R16" s="25">
+      <c r="Q16" s="67">
+        <v>1.5</v>
+      </c>
+      <c r="R16" s="31">
         <v>32.9</v>
       </c>
       <c r="S16" s="11">
         <v>170</v>
       </c>
-      <c r="T16" s="24">
+      <c r="T16" s="25">
         <v>0.52100000000000002</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16" s="67">
         <v>3.88</v>
       </c>
-      <c r="V16" s="24">
+      <c r="V16" s="25">
         <v>0.216</v>
       </c>
       <c r="W16" s="25" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="X16" s="35">
         <v>1865</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="Z16" s="35">
         <v>3.91</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -2659,368 +2632,368 @@
         <v>0.39</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="25">
-        <v>0.19</v>
+        <v>155</v>
+      </c>
+      <c r="D17" s="34">
+        <v>19</v>
       </c>
       <c r="E17" s="14">
         <v>0.21</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>125</v>
+        <v>157</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="O17" s="49" t="s">
-        <v>42</v>
+        <v>192</v>
+      </c>
+      <c r="O17" s="48" t="s">
+        <v>33</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>1.61</v>
-      </c>
-      <c r="R17" s="25">
+        <v>202</v>
+      </c>
+      <c r="Q17" s="67">
+        <v>1.6</v>
+      </c>
+      <c r="R17" s="31">
         <v>33.700000000000003</v>
       </c>
       <c r="S17" s="11">
         <v>162</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="25">
         <v>0.48599999999999999</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="67">
         <v>3.28</v>
       </c>
-      <c r="V17" s="24">
+      <c r="V17" s="25">
         <v>0.184</v>
       </c>
       <c r="W17" s="25" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="X17" s="35">
         <v>1917</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="Z17" s="35">
         <v>2.74</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="9">
         <v>0.39</v>
       </c>
-      <c r="C18" s="14">
-        <v>0.41</v>
-      </c>
-      <c r="D18" s="25">
-        <v>0.19</v>
+      <c r="C18" s="11">
+        <v>41</v>
+      </c>
+      <c r="D18" s="34">
+        <v>19</v>
       </c>
       <c r="E18" s="14">
         <v>0.21</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="24">
-        <v>1.9E-2</v>
+        <v>169</v>
+      </c>
+      <c r="J18" s="31">
+        <v>1.9</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="O18" s="49" t="s">
-        <v>43</v>
+        <v>191</v>
+      </c>
+      <c r="O18" s="48" t="s">
+        <v>34</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="R18" s="25">
+        <v>202</v>
+      </c>
+      <c r="Q18" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="R18" s="31">
         <v>36.9</v>
       </c>
       <c r="S18" s="11">
         <v>164</v>
       </c>
-      <c r="T18" s="24">
+      <c r="T18" s="25">
         <v>0.54600000000000004</v>
       </c>
-      <c r="U18" s="14">
+      <c r="U18" s="67">
         <v>4.32</v>
       </c>
-      <c r="V18" s="24">
+      <c r="V18" s="25">
         <v>0.23400000000000001</v>
       </c>
       <c r="W18" s="25" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="X18" s="35">
         <v>2456</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="Z18" s="35">
         <v>3.14</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="25"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="11"/>
       <c r="F19" s="25"/>
       <c r="G19" s="11"/>
       <c r="H19" s="25"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="25"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="11"/>
       <c r="L19" s="25"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="39"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="25"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="31"/>
       <c r="S19" s="11"/>
       <c r="T19" s="34"/>
-      <c r="U19" s="11"/>
+      <c r="U19" s="67"/>
       <c r="V19" s="31"/>
       <c r="W19" s="34"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-    </row>
-    <row r="20" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="46"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="46"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="46"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="46"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="46"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
-      <c r="O20" s="48"/>
+      <c r="O20" s="47"/>
       <c r="P20" s="33"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="46"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="71"/>
       <c r="S20" s="19"/>
       <c r="T20" s="33"/>
-      <c r="U20" s="19"/>
+      <c r="U20" s="72"/>
       <c r="V20" s="33"/>
       <c r="W20" s="33"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="35"/>
     </row>
-    <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="25"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="11"/>
       <c r="F21" s="25"/>
       <c r="G21" s="11"/>
       <c r="H21" s="25"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="11"/>
       <c r="L21" s="25"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="39"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="25"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="31"/>
       <c r="S21" s="11"/>
       <c r="T21" s="34"/>
-      <c r="U21" s="11"/>
+      <c r="U21" s="67"/>
       <c r="V21" s="34"/>
       <c r="W21" s="34"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="35"/>
     </row>
-    <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9">
         <v>0.41</v>
       </c>
-      <c r="C22" s="14">
-        <v>0.41</v>
-      </c>
-      <c r="D22" s="25">
-        <v>0.18</v>
+      <c r="C22" s="11">
+        <v>41</v>
+      </c>
+      <c r="D22" s="34">
+        <v>18</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="J22" s="24">
-        <v>0.02</v>
-      </c>
-      <c r="K22" s="21">
-        <v>2.4E-2</v>
-      </c>
-      <c r="L22" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="M22" s="14">
-        <v>5.84</v>
+        <v>157</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="31">
+        <v>2</v>
+      </c>
+      <c r="K22" s="67">
+        <v>2.4</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" s="67">
+        <v>5.8</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="O22" s="39" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="P22" s="30">
         <v>8.1300000000000008</v>
       </c>
-      <c r="Q22" s="14">
-        <v>3.17</v>
-      </c>
-      <c r="R22" s="25">
+      <c r="Q22" s="67">
+        <v>3.2</v>
+      </c>
+      <c r="R22" s="31">
         <v>35.06</v>
       </c>
       <c r="S22" s="11">
         <v>152</v>
       </c>
-      <c r="T22" s="24">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="U22" s="12">
+      <c r="T22" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="U22" s="68">
         <v>3.13</v>
       </c>
       <c r="V22" s="36" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="W22" s="25" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="X22" s="35">
         <v>2102</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="Z22" s="35">
         <v>3.48</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="9">
         <v>0.39</v>
       </c>
-      <c r="C23" s="14">
-        <v>0.42</v>
-      </c>
-      <c r="D23" s="25">
-        <v>0.19</v>
+      <c r="C23" s="11">
+        <v>42</v>
+      </c>
+      <c r="D23" s="34">
+        <v>19</v>
       </c>
       <c r="E23" s="14">
         <v>0.21</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" s="21">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="J23" s="24">
-        <v>1.9E-2</v>
-      </c>
-      <c r="K23" s="21">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="L23" s="29">
-        <v>1.8500000000000001E-3</v>
-      </c>
-      <c r="M23" s="14">
-        <v>5.37</v>
+        <v>157</v>
+      </c>
+      <c r="I23" s="67">
+        <v>3.2</v>
+      </c>
+      <c r="J23" s="31">
+        <v>1.9</v>
+      </c>
+      <c r="K23" s="67">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="M23" s="67">
+        <v>5.4</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="O23" s="39">
         <v>501</v>
@@ -3028,159 +3001,159 @@
       <c r="P23" s="30">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q23" s="14">
-        <v>1.41</v>
-      </c>
-      <c r="R23" s="25">
+      <c r="Q23" s="67">
+        <v>1.4</v>
+      </c>
+      <c r="R23" s="31">
         <v>33.01</v>
       </c>
       <c r="S23" s="11">
         <v>170</v>
       </c>
-      <c r="T23" s="24">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="U23" s="12">
+      <c r="T23" s="25">
+        <v>0.53</v>
+      </c>
+      <c r="U23" s="68">
         <v>4.58</v>
       </c>
       <c r="V23" s="36" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="W23" s="25" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="X23" s="35">
         <v>1838</v>
       </c>
       <c r="Y23" s="6">
-        <v>7.2400000000000006E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="Z23" s="35">
         <v>2.15</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="9">
         <v>0.39</v>
       </c>
-      <c r="C24" s="14">
-        <v>0.41</v>
-      </c>
-      <c r="D24" s="25">
-        <v>0.2</v>
+      <c r="C24" s="11">
+        <v>41</v>
+      </c>
+      <c r="D24" s="34">
+        <v>20</v>
       </c>
       <c r="E24" s="14">
         <v>0.21</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="21">
-        <v>2.9499999999999998E-2</v>
-      </c>
-      <c r="J24" s="24">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="L24" s="29">
-        <v>1.7700000000000001E-3</v>
-      </c>
-      <c r="M24" s="14">
-        <v>5.07</v>
+        <v>162</v>
+      </c>
+      <c r="I24" s="67">
+        <v>3</v>
+      </c>
+      <c r="J24" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="M24" s="67">
+        <v>5.0999999999999996</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="O24" s="39">
-        <v>517</v>
+        <v>517.03710000000001</v>
       </c>
       <c r="P24" s="30">
         <v>8.2200000000000006</v>
       </c>
-      <c r="Q24" s="14">
-        <v>1.35</v>
-      </c>
-      <c r="R24" s="25">
+      <c r="Q24" s="67">
+        <v>1.4</v>
+      </c>
+      <c r="R24" s="31">
         <v>31.7</v>
       </c>
       <c r="S24" s="11">
         <v>160</v>
       </c>
-      <c r="T24" s="24">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="U24" s="12">
+      <c r="T24" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="U24" s="68">
         <v>3.11</v>
       </c>
       <c r="V24" s="36" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="W24" s="25" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="X24" s="35">
         <v>1858</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="Z24" s="35">
         <v>2.84</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="9">
         <v>0.4</v>
       </c>
-      <c r="C25" s="14">
-        <v>0.41</v>
-      </c>
-      <c r="D25" s="25">
-        <v>0.19</v>
+      <c r="C25" s="11">
+        <v>41</v>
+      </c>
+      <c r="D25" s="34">
+        <v>19</v>
       </c>
       <c r="E25" s="14">
         <v>0.21</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="21">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="J25" s="24">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="29">
-        <v>1.72E-3</v>
-      </c>
-      <c r="M25" s="14">
+        <v>160</v>
+      </c>
+      <c r="I25" s="67">
+        <v>3</v>
+      </c>
+      <c r="J25" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="K25" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="M25" s="67">
         <v>4.9000000000000004</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="O25" s="39">
         <v>477</v>
@@ -3188,23 +3161,23 @@
       <c r="P25" s="30">
         <v>8.24</v>
       </c>
-      <c r="Q25" s="14">
-        <v>1.67</v>
-      </c>
-      <c r="R25" s="25">
-        <v>35.979999999999997</v>
+      <c r="Q25" s="67">
+        <v>1.7</v>
+      </c>
+      <c r="R25" s="31">
+        <v>36</v>
       </c>
       <c r="S25" s="11">
         <v>162</v>
       </c>
-      <c r="T25" s="24">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="U25" s="12">
+      <c r="T25" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="U25" s="68">
         <v>4.72</v>
       </c>
       <c r="V25" s="36" t="s">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="W25" s="25">
         <v>1.83</v>
@@ -3213,188 +3186,188 @@
         <v>2546</v>
       </c>
       <c r="Y25" s="6" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="Z25" s="35">
         <v>3.16</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="25"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="11"/>
       <c r="F26" s="28"/>
       <c r="G26" s="23"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="14"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="67"/>
       <c r="N26" s="11"/>
       <c r="O26" s="39"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="25"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="31"/>
       <c r="S26" s="11"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="12"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="68"/>
       <c r="V26" s="40"/>
       <c r="W26" s="25"/>
       <c r="X26" s="35"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="35"/>
     </row>
-    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="9">
         <v>0.38</v>
       </c>
-      <c r="C27" s="14">
-        <v>0.42</v>
-      </c>
-      <c r="D27" s="25">
-        <v>0.2</v>
+      <c r="C27" s="11">
+        <v>42</v>
+      </c>
+      <c r="D27" s="34">
+        <v>20</v>
       </c>
       <c r="E27" s="14">
         <v>0.21</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="21">
-        <v>3.3099999999999997E-2</v>
-      </c>
-      <c r="J27" s="24">
-        <v>0.02</v>
-      </c>
-      <c r="K27" s="21">
-        <v>2.47E-2</v>
-      </c>
-      <c r="L27" s="29">
-        <v>1.91E-3</v>
-      </c>
-      <c r="M27" s="14">
-        <v>5.71</v>
+        <v>160</v>
+      </c>
+      <c r="I27" s="67">
+        <v>3.3</v>
+      </c>
+      <c r="J27" s="31">
+        <v>2</v>
+      </c>
+      <c r="K27" s="67">
+        <v>2.5</v>
+      </c>
+      <c r="L27" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="M27" s="67">
+        <v>5.7</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="O27" s="39">
-        <v>570</v>
+        <v>577.88130000000001</v>
       </c>
       <c r="P27" s="31">
         <v>8.24</v>
       </c>
-      <c r="Q27" s="14">
-        <v>3.98</v>
-      </c>
-      <c r="R27" s="25">
-        <v>37.99</v>
+      <c r="Q27" s="67">
+        <v>4</v>
+      </c>
+      <c r="R27" s="31">
+        <v>38</v>
       </c>
       <c r="S27" s="11">
         <v>158</v>
       </c>
-      <c r="T27" s="35">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="U27" s="14">
+      <c r="T27" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="U27" s="67">
         <v>3.89</v>
       </c>
       <c r="V27" s="26" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="X27" s="35">
         <v>2519</v>
       </c>
       <c r="Y27" s="6">
-        <v>7.7600000000000002E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="Z27" s="35">
         <v>3.35</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="9">
         <v>0.39</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="25">
-        <v>0.19</v>
+      <c r="C28" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="34">
+        <v>19</v>
       </c>
       <c r="E28" s="14">
         <v>0.21</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="21">
-        <v>3.2599999999999997E-2</v>
-      </c>
-      <c r="J28" s="25">
-        <v>0.02</v>
-      </c>
-      <c r="K28" s="21">
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="L28" s="29">
-        <v>1.92E-3</v>
-      </c>
-      <c r="M28" s="14">
+        <v>163</v>
+      </c>
+      <c r="I28" s="67">
+        <v>3.3</v>
+      </c>
+      <c r="J28" s="31">
+        <v>2</v>
+      </c>
+      <c r="K28" s="67">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L28" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="M28" s="67">
         <v>5.5</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="O28" s="39">
-        <v>518</v>
+        <v>517.96460000000002</v>
       </c>
       <c r="P28" s="31">
         <v>8.2200000000000006</v>
       </c>
-      <c r="Q28" s="14">
-        <v>1.61</v>
-      </c>
-      <c r="R28" s="25">
+      <c r="Q28" s="67">
+        <v>1.6</v>
+      </c>
+      <c r="R28" s="31">
         <v>32.700000000000003</v>
       </c>
       <c r="S28" s="11">
         <v>169</v>
       </c>
-      <c r="T28" s="35">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="U28" s="14">
+      <c r="T28" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="U28" s="67">
         <v>3.28</v>
       </c>
       <c r="V28" s="26" t="s">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="W28" s="14">
         <v>1.8</v>
@@ -3403,78 +3376,78 @@
         <v>1893</v>
       </c>
       <c r="Y28" s="6" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="Z28" s="35">
         <v>2.87</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="9">
         <v>0.39</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="25">
-        <v>0.19</v>
+      <c r="C29" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="34">
+        <v>19</v>
       </c>
       <c r="E29" s="14">
         <v>0.21</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="J29" s="24">
-        <v>1.9E-2</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="M29" s="14">
-        <v>5.35</v>
+        <v>159</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="J29" s="31">
+        <v>1.9</v>
+      </c>
+      <c r="K29" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="M29" s="67">
+        <v>5.4</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O29" s="39">
-        <v>530</v>
+        <v>530.02260000000001</v>
       </c>
       <c r="P29" s="31">
         <v>8.2899999999999991</v>
       </c>
-      <c r="Q29" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="R29" s="25">
-        <v>35.75</v>
+      <c r="Q29" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="R29" s="31">
+        <v>35.799999999999997</v>
       </c>
       <c r="S29" s="11">
         <v>166</v>
       </c>
-      <c r="T29" s="35">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="U29" s="14">
+      <c r="T29" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="U29" s="67">
         <v>3.47</v>
       </c>
       <c r="V29" s="26" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="W29" s="14">
         <v>1.88</v>
@@ -3483,78 +3456,78 @@
         <v>1978</v>
       </c>
       <c r="Y29" s="6">
-        <v>8.8900000000000007E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="Z29" s="35">
         <v>2.64</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="9">
         <v>0.39</v>
       </c>
-      <c r="C30" s="14">
-        <v>0.42</v>
-      </c>
-      <c r="D30" s="25">
-        <v>0.19</v>
+      <c r="C30" s="11">
+        <v>42</v>
+      </c>
+      <c r="D30" s="34">
+        <v>19</v>
       </c>
       <c r="E30" s="14">
         <v>0.21</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="21">
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="J30" s="24">
-        <v>0.02</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="L30" s="29">
-        <v>1.91E-3</v>
-      </c>
-      <c r="M30" s="14">
-        <v>5.57</v>
+        <v>164</v>
+      </c>
+      <c r="I30" s="67">
+        <v>3.3</v>
+      </c>
+      <c r="J30" s="31">
+        <v>2</v>
+      </c>
+      <c r="K30" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="L30" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="M30" s="67">
+        <v>5.6</v>
       </c>
       <c r="N30" s="21">
-        <v>0.66700000000000004</v>
+        <v>0.67</v>
       </c>
       <c r="O30" s="39">
-        <v>526</v>
+        <v>529.55880000000002</v>
       </c>
       <c r="P30" s="31">
         <v>8.2799999999999994</v>
       </c>
-      <c r="Q30" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="R30" s="25">
+      <c r="Q30" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="R30" s="31">
         <v>38.799999999999997</v>
       </c>
       <c r="S30" s="11">
         <v>166</v>
       </c>
-      <c r="T30" s="35">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="U30" s="14">
+      <c r="T30" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U30" s="67">
         <v>3.96</v>
       </c>
       <c r="V30" s="26" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="W30" s="14">
         <v>1.78</v>
@@ -3563,201 +3536,241 @@
         <v>2369</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="Z30" s="35">
         <v>3.11</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
       <c r="B31" s="41"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="42"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="18"/>
       <c r="F31" s="42"/>
       <c r="G31" s="18"/>
       <c r="H31" s="42"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="42"/>
+      <c r="J31" s="32"/>
       <c r="K31" s="18"/>
       <c r="L31" s="42"/>
-      <c r="M31" s="18"/>
+      <c r="M31" s="73"/>
       <c r="N31" s="18"/>
-      <c r="O31" s="44"/>
+      <c r="O31" s="43"/>
       <c r="P31" s="42"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="42"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="70"/>
       <c r="S31" s="18"/>
       <c r="T31" s="42"/>
-      <c r="U31" s="18"/>
+      <c r="U31" s="73"/>
       <c r="V31" s="42"/>
       <c r="W31" s="18"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="63"/>
-    </row>
-    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B32" s="9">
         <v>0.39</v>
       </c>
-      <c r="C32">
-        <v>0.39</v>
-      </c>
-      <c r="D32" s="25">
-        <v>0.20399999999999999</v>
+      <c r="C32" s="6">
+        <v>39</v>
+      </c>
+      <c r="D32" s="34">
+        <v>20</v>
       </c>
       <c r="E32" s="14">
         <v>0.20300000000000001</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" s="21">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="J32" s="24">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="K32" s="21">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="L32" s="29">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="M32" s="14">
+        <v>165</v>
+      </c>
+      <c r="I32" s="67">
+        <v>3.1</v>
+      </c>
+      <c r="J32" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="K32" s="67">
+        <v>2.1</v>
+      </c>
+      <c r="L32" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="M32" s="67">
         <v>5.01</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="O32" s="39">
-        <v>476.41399999999999</v>
+        <v>467.41399999999999</v>
       </c>
       <c r="P32" s="31">
         <v>8.24</v>
       </c>
-      <c r="Q32" s="14">
-        <v>1.51</v>
-      </c>
-      <c r="R32" s="25">
-        <v>33.04</v>
+      <c r="Q32" s="67">
+        <v>1.5</v>
+      </c>
+      <c r="R32" s="31">
+        <v>33</v>
       </c>
       <c r="S32" s="11">
         <v>163.69999999999999</v>
       </c>
-      <c r="T32" s="35">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="U32" s="14">
+      <c r="T32" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="U32" s="67">
         <v>3.26</v>
       </c>
       <c r="V32" s="14">
         <v>0.28399999999999997</v>
       </c>
       <c r="W32" s="14" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="X32" s="35">
-        <v>1964.95</v>
+        <v>1965</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="Z32" s="35">
         <v>2.86</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B33" s="9">
         <v>0.43</v>
       </c>
-      <c r="C33" s="64">
-        <v>0.38690000000000002</v>
-      </c>
-      <c r="D33" s="25">
-        <v>0.182</v>
+      <c r="C33" s="39">
+        <v>39</v>
+      </c>
+      <c r="D33" s="34">
+        <v>18</v>
       </c>
       <c r="E33" s="14">
         <v>0.21099999999999999</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>95</v>
+      <c r="F33" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I33" s="21">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J33" s="24">
-        <v>1.66E-2</v>
-      </c>
-      <c r="K33" s="21">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="L33" s="29">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M33" s="14">
+        <v>166</v>
+      </c>
+      <c r="I33" s="67">
+        <v>2.8</v>
+      </c>
+      <c r="J33" s="31">
+        <v>1.7</v>
+      </c>
+      <c r="K33" s="67">
+        <v>1.8</v>
+      </c>
+      <c r="L33" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="M33" s="67">
         <v>4.72</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="O33" s="39">
-        <v>484.57</v>
+        <v>484.57339999999999</v>
       </c>
       <c r="P33" s="31">
         <v>8.09</v>
       </c>
-      <c r="Q33" s="14">
-        <v>1.33</v>
-      </c>
-      <c r="R33" s="25">
-        <v>31.05</v>
+      <c r="Q33" s="67">
+        <v>1.3</v>
+      </c>
+      <c r="R33" s="31">
+        <v>31.1</v>
       </c>
       <c r="S33" s="11">
         <v>130.19999999999999</v>
       </c>
-      <c r="T33" s="35">
+      <c r="T33" s="25">
         <v>0.52</v>
       </c>
-      <c r="U33" s="14">
+      <c r="U33" s="67">
         <v>3.72</v>
       </c>
       <c r="V33" s="14">
         <v>0.22</v>
       </c>
       <c r="W33" s="14" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="X33" s="35">
-        <v>1727.95</v>
+        <v>1728</v>
       </c>
       <c r="Y33" s="6" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="Z33" s="35">
         <v>3.2</v>
       </c>
     </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q37" s="69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A38:H40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3776,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D13954B-F096-9243-BDCC-DEEAFA1248CF}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D30:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3801,134 +3814,134 @@
       <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="K1" s="50" t="s">
-        <v>234</v>
+      <c r="B1" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>200</v>
+      <c r="B2" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>196</v>
+      <c r="B3" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>58</v>
+      <c r="B4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
@@ -4047,97 +4060,97 @@
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9">
-        <v>37.799999999999997</v>
+      <c r="B11" s="76">
+        <v>38</v>
       </c>
       <c r="C11" s="14">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="25">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="E11" s="14">
         <v>1.77</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="23" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>223</v>
+        <v>121</v>
       </c>
       <c r="I11" s="11">
         <v>4.1900000000000004</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="23" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9">
-        <v>42.8</v>
+      <c r="B12" s="76">
+        <v>43</v>
       </c>
       <c r="C12" s="14">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D12" s="25">
-        <v>6.92</v>
+        <v>7</v>
       </c>
       <c r="E12" s="14">
         <v>3.04</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="4" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="I12" s="5">
         <v>4.99</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="4" t="s">
-        <v>266</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="41"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="18"/>
       <c r="D13" s="42"/>
       <c r="E13" s="18"/>
@@ -4152,11 +4165,11 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="46"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -4167,17 +4180,17 @@
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="9">
-        <v>51.2</v>
+      <c r="B15" s="76">
+        <v>51</v>
       </c>
       <c r="C15" s="14">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="D15" s="25">
-        <v>6.98</v>
+        <v>7</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="11">
@@ -4191,24 +4204,24 @@
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="23" t="s">
-        <v>240</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9">
-        <v>39.200000000000003</v>
+      <c r="B16" s="76">
+        <v>39</v>
       </c>
       <c r="C16" s="14">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="D16" s="25">
-        <v>6.61</v>
+        <v>7</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="11">
@@ -4222,24 +4235,24 @@
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="23" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>242</v>
+      <c r="B17" s="76" t="s">
+        <v>231</v>
       </c>
       <c r="C17" s="14">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="D17" s="25">
-        <v>6.24</v>
+        <v>6</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="11">
@@ -4253,24 +4266,24 @@
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="23" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>243</v>
+      <c r="B18" s="76" t="s">
+        <v>232</v>
       </c>
       <c r="C18" s="14">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="25">
-        <v>8.86</v>
+        <v>9</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="11">
@@ -4284,12 +4297,12 @@
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="23" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="11"/>
       <c r="D19" s="25"/>
       <c r="E19" s="11"/>
@@ -4304,11 +4317,11 @@
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="46"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="46"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -4319,7 +4332,7 @@
       <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="11"/>
       <c r="D21" s="25"/>
       <c r="E21" s="11"/>
@@ -4334,132 +4347,132 @@
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="9">
-        <v>39.1</v>
-      </c>
-      <c r="C22" s="14">
-        <v>10.24</v>
+      <c r="B22" s="76">
+        <v>39</v>
+      </c>
+      <c r="C22" s="79">
+        <v>10</v>
       </c>
       <c r="D22" s="25">
-        <v>10.73</v>
+        <v>11</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="23" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23" t="s">
-        <v>262</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="9">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="C23" s="14">
-        <v>15.31</v>
+      <c r="B23" s="76">
+        <v>37</v>
+      </c>
+      <c r="C23" s="79">
+        <v>15</v>
       </c>
       <c r="D23" s="25">
-        <v>4.8499999999999996</v>
+        <v>5</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="23" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="23" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" s="14">
-        <v>10.47</v>
+      <c r="B24" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="79">
+        <v>10</v>
       </c>
       <c r="D24" s="25">
-        <v>6.49</v>
+        <v>7</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="23" t="s">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="23" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="9">
-        <v>42.8</v>
-      </c>
-      <c r="C25" s="14">
-        <v>16.350000000000001</v>
+      <c r="B25" s="76">
+        <v>43</v>
+      </c>
+      <c r="C25" s="79">
+        <v>16</v>
       </c>
       <c r="D25" s="25">
-        <v>8.39</v>
+        <v>8</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="23" t="s">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="23" t="s">
-        <v>235</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="25"/>
       <c r="E26" s="11"/>
       <c r="F26" s="28"/>
@@ -4473,130 +4486,130 @@
       <c r="A27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="76">
         <v>67</v>
       </c>
-      <c r="C27" s="14">
-        <v>10.24</v>
+      <c r="C27" s="79">
+        <v>10</v>
       </c>
       <c r="D27" s="25">
-        <v>4.53</v>
+        <v>5</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="23" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>218</v>
+        <v>116</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="23" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="9">
-        <v>41.4</v>
-      </c>
-      <c r="C28" s="14">
-        <v>15.31</v>
+      <c r="B28" s="76">
+        <v>41</v>
+      </c>
+      <c r="C28" s="79">
+        <v>15</v>
       </c>
       <c r="D28" s="25">
-        <v>9.35</v>
+        <v>9</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="23" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="23" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="9">
-        <v>42.9</v>
-      </c>
-      <c r="C29" s="14">
-        <v>10.47</v>
+      <c r="B29" s="76">
+        <v>43</v>
+      </c>
+      <c r="C29" s="79">
+        <v>10</v>
       </c>
       <c r="D29" s="25">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="23" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" s="23" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C30" s="14">
-        <v>16.350000000000001</v>
+      <c r="B30" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="79">
+        <v>16</v>
       </c>
       <c r="D30" s="25">
-        <v>9.35</v>
+        <v>9</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="23" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="J30" s="23"/>
       <c r="K30" s="23" t="s">
-        <v>265</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="42"/>
       <c r="E31" s="18"/>
       <c r="F31" s="42"/>
@@ -4608,65 +4621,100 @@
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32" s="66">
-        <v>29.41</v>
+        <v>53</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="65">
+        <v>29</v>
       </c>
       <c r="D32" s="25">
-        <v>23.91</v>
+        <v>24</v>
       </c>
       <c r="E32" s="14">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12">
         <v>59</v>
       </c>
-      <c r="H32" s="67">
+      <c r="H32" s="66">
         <v>33.700000000000003</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="66">
         <v>8.06</v>
       </c>
-      <c r="K32" s="67" t="s">
-        <v>267</v>
+      <c r="K32" s="66" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="64">
-        <v>16.28</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="63">
+        <v>16</v>
       </c>
       <c r="D33" s="25">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E33" s="14">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="12">
         <v>22.89</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H33" s="66">
         <v>7.69</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="66">
         <v>4.67</v>
       </c>
-      <c r="K33" s="67" t="s">
-        <v>268</v>
-      </c>
+      <c r="K33" s="66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A38:H40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Anova tables.xlsx
+++ b/Anova tables.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/OCS_microarthropods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA0F884-AB32-244A-8F09-ACE4F45FC87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A63D8A71-3032-494D-8BF1-9794060F5A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14720" yWindow="-28800" windowWidth="68800" windowHeight="28800" activeTab="2" xr2:uid="{11F10D1D-61B6-B04A-968F-0DEA3959953D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="2" xr2:uid="{11F10D1D-61B6-B04A-968F-0DEA3959953D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Soil Health Indicators" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Soil Microarthopods" sheetId="2" r:id="rId3"/>
+    <sheet name="All soil health indicators" sheetId="1" r:id="rId1"/>
+    <sheet name="Select soil health indicators" sheetId="3" r:id="rId2"/>
+    <sheet name="All soil microarthopods" sheetId="2" r:id="rId3"/>
+    <sheet name="Select soil microarthropods" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="249">
   <si>
     <t>P-value</t>
   </si>
@@ -106,12 +108,6 @@
     <t>Gaussian</t>
   </si>
   <si>
-    <t>soil_texture_sand (%)</t>
-  </si>
-  <si>
-    <t>soil_texture_silt (%)</t>
-  </si>
-  <si>
     <t>341 (a)</t>
   </si>
   <si>
@@ -130,9 +126,6 @@
     <t>355 (a)</t>
   </si>
   <si>
-    <t>330 (b)</t>
-  </si>
-  <si>
     <t>339 (ab)</t>
   </si>
   <si>
@@ -145,9 +138,6 @@
     <t>501 (b)</t>
   </si>
   <si>
-    <t>soil_texture_clay (%)</t>
-  </si>
-  <si>
     <t>Logit</t>
   </si>
   <si>
@@ -184,9 +174,6 @@
     <t>Sulfur (ppm)</t>
   </si>
   <si>
-    <t>Predicted avaliable water capacity (g/g)</t>
-  </si>
-  <si>
     <t>Surface hardness (p.s.i.)</t>
   </si>
   <si>
@@ -241,9 +228,6 @@
     <t>158 (a)*</t>
   </si>
   <si>
-    <t>332 (b)*</t>
-  </si>
-  <si>
     <t>341 (a)*</t>
   </si>
   <si>
@@ -253,27 +237,15 @@
     <t>330*</t>
   </si>
   <si>
-    <t>163.2812 (B)</t>
-  </si>
-  <si>
     <t>149 (a)*,**</t>
   </si>
   <si>
-    <t>258.59 (A)</t>
-  </si>
-  <si>
     <t>113 (b)*,**</t>
   </si>
   <si>
     <t>115 (b)*,**</t>
   </si>
   <si>
-    <t>340.15 (B)</t>
-  </si>
-  <si>
-    <t>364.375 (A)</t>
-  </si>
-  <si>
     <t>318 (a)*,**</t>
   </si>
   <si>
@@ -328,9 +300,6 @@
     <t>0.066**</t>
   </si>
   <si>
-    <t>total organisms</t>
-  </si>
-  <si>
     <t>nbinom1</t>
   </si>
   <si>
@@ -583,12 +552,6 @@
     <t>0.18**</t>
   </si>
   <si>
-    <t>pred_soil_protein (mg/g)</t>
-  </si>
-  <si>
-    <t>Respiration CO2 (mg/g)</t>
-  </si>
-  <si>
     <t>0.83 (A)</t>
   </si>
   <si>
@@ -622,18 +585,6 @@
     <t>0.81**</t>
   </si>
   <si>
-    <t>active_carbon (ppm)</t>
-  </si>
-  <si>
-    <t>soc (%)</t>
-  </si>
-  <si>
-    <t>total_c (%)</t>
-  </si>
-  <si>
-    <t>total_n (%)</t>
-  </si>
-  <si>
     <t>5.5 **</t>
   </si>
   <si>
@@ -767,6 +718,176 @@
   </si>
   <si>
     <t>4 (a)</t>
+  </si>
+  <si>
+    <t>259 (A)</t>
+  </si>
+  <si>
+    <t>163 (B)</t>
+  </si>
+  <si>
+    <t>364 (A)</t>
+  </si>
+  <si>
+    <t>340 (B)</t>
+  </si>
+  <si>
+    <t>Soil texture: sand (%)</t>
+  </si>
+  <si>
+    <t>Soil texture: silt (%)</t>
+  </si>
+  <si>
+    <t>Soil texture: clay (%)</t>
+  </si>
+  <si>
+    <r>
+      <t>Predicted available water content (g H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> soil) </t>
+    </r>
+  </si>
+  <si>
+    <t>331 (b)*</t>
+  </si>
+  <si>
+    <t>335*</t>
+  </si>
+  <si>
+    <t>331 (a)</t>
+  </si>
+  <si>
+    <t>329 (b)</t>
+  </si>
+  <si>
+    <t>Soil Organic Carbon (%)</t>
+  </si>
+  <si>
+    <t>Total Carbon (%)</t>
+  </si>
+  <si>
+    <t>Total nitrogen (%)</t>
+  </si>
+  <si>
+    <r>
+      <t>Predicted soil protein (mg protein g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> soil)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Respiration (mg CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> soil</t>
+    </r>
+  </si>
+  <si>
+    <t>Active carbon (ppm)</t>
+  </si>
+  <si>
+    <t>Copper (ppm)</t>
+  </si>
+  <si>
+    <t>Acive Carbon (ppm)</t>
+  </si>
+  <si>
+    <t>Soil Respiration (mg)</t>
+  </si>
+  <si>
+    <t>Predicted Soil Protein (mg protein g-1 soil)</t>
+  </si>
+  <si>
+    <t>Total microinvertebrates</t>
   </si>
 </sst>
 </file>
@@ -779,7 +900,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -811,6 +932,27 @@
       <color rgb="FF000000"/>
       <name val="Aptos"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -832,7 +974,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -987,11 +1129,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1177,12 +1398,6 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1205,26 +1420,129 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,118 +1882,118 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A46" sqref="A46"/>
+      <selection pane="topRight" activeCell="A38" sqref="A38:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="69" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="69" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="69" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.33203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" style="69" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="69"/>
-    <col min="17" max="17" width="19.83203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="69" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" style="69" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="69"/>
-    <col min="21" max="21" width="18" style="69" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="69"/>
+    <col min="1" max="1" width="34.5" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="67" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="67" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.1640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="67" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="67"/>
+    <col min="17" max="17" width="19.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="67" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="67" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="67"/>
+    <col min="21" max="21" width="18" style="67" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="67" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="L1" s="49" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="M1" s="49" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="N1" s="49" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="O1" s="49" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="P1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="Q1" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="V1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="W1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="X1" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="Y1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="49" t="s">
+      <c r="Z1" s="49" t="s">
         <v>43</v>
-      </c>
-      <c r="W1" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" s="49" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -1692,13 +2010,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>23</v>
       </c>
       <c r="H2" s="49" t="s">
         <v>20</v>
@@ -1716,13 +2034,13 @@
         <v>20</v>
       </c>
       <c r="M2" s="49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P2" s="49" t="s">
         <v>21</v>
@@ -1752,7 +2070,7 @@
         <v>21</v>
       </c>
       <c r="Y2" s="49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z2" s="49" t="s">
         <v>21</v>
@@ -1763,79 +2081,79 @@
         <v>17</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>153</v>
+        <v>24</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L3" s="50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M3" s="49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="O3" s="49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P3" s="49" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="Q3" s="49" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="R3" s="49" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="S3" s="49" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="T3" s="49" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="U3" s="49" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="V3" s="49" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="W3" s="49" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="X3" s="49" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="Y3" s="49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z3" s="49" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -1843,79 +2161,79 @@
         <v>18</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>33</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="S4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="U4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="V4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="W4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="X4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Y4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Z4" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -1927,7 +2245,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="5"/>
       <c r="F5" s="35"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
@@ -1962,12 +2280,12 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E6" s="5">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="82" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="24">
@@ -2042,13 +2360,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E7" s="5">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="5">
-        <v>0.28000000000000003</v>
+      <c r="G7" s="81">
+        <v>0.27</v>
       </c>
       <c r="H7" s="24">
         <v>0.25</v>
@@ -2122,12 +2440,12 @@
         <v>0.27</v>
       </c>
       <c r="E8" s="5">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="82" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="24">
@@ -2195,7 +2513,7 @@
       <c r="D9" s="42"/>
       <c r="E9" s="54"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="54"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="55"/>
       <c r="I9" s="54"/>
       <c r="J9" s="55"/>
@@ -2225,7 +2543,7 @@
       <c r="D10" s="45"/>
       <c r="E10" s="58"/>
       <c r="F10" s="59"/>
-      <c r="G10" s="58"/>
+      <c r="G10" s="81"/>
       <c r="H10" s="59"/>
       <c r="I10" s="58"/>
       <c r="J10" s="59"/>
@@ -2254,7 +2572,7 @@
         <v>0.4</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D11" s="34">
         <v>19</v>
@@ -2263,31 +2581,31 @@
         <v>0.21</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>234</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I11" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="29" t="s">
         <v>169</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="M11" s="14">
         <v>5.3</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="O11" s="39">
         <v>516</v>
@@ -2295,8 +2613,8 @@
       <c r="P11" s="30">
         <v>8.1969999999999992</v>
       </c>
-      <c r="Q11" s="74" t="s">
-        <v>203</v>
+      <c r="Q11" s="72" t="s">
+        <v>186</v>
       </c>
       <c r="R11" s="31">
         <v>33.700000000000003</v>
@@ -2305,22 +2623,22 @@
         <v>161</v>
       </c>
       <c r="T11" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="U11" s="67">
+        <v>191</v>
+      </c>
+      <c r="U11" s="65">
         <v>3.81</v>
       </c>
       <c r="V11" s="36" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="W11" s="40" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="X11" s="35">
         <v>2067</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="Z11" s="35">
         <v>3.16</v>
@@ -2334,7 +2652,7 @@
         <v>0.39</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D12" s="34">
         <v>19</v>
@@ -2343,40 +2661,40 @@
         <v>0.21</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="G12" s="84" t="s">
+        <v>62</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K12" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="L12" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>189</v>
-      </c>
       <c r="O12" s="39" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q12" s="74" t="s">
-        <v>204</v>
+        <v>185</v>
+      </c>
+      <c r="Q12" s="72" t="s">
+        <v>187</v>
       </c>
       <c r="R12" s="31">
         <v>36.200000000000003</v>
@@ -2385,22 +2703,22 @@
         <v>165</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="U12" s="67">
+        <v>192</v>
+      </c>
+      <c r="U12" s="65">
         <v>3.64</v>
       </c>
       <c r="V12" s="36" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="W12" s="40" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="X12" s="35">
         <v>2174</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="Z12" s="35">
         <v>2.99</v>
@@ -2413,7 +2731,7 @@
       <c r="D13" s="32"/>
       <c r="E13" s="18"/>
       <c r="F13" s="42"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="85"/>
       <c r="H13" s="42"/>
       <c r="I13" s="18"/>
       <c r="J13" s="42"/>
@@ -2423,11 +2741,11 @@
       <c r="N13" s="32"/>
       <c r="O13" s="43"/>
       <c r="P13" s="32"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="70"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="68"/>
       <c r="S13" s="18"/>
       <c r="T13" s="32"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
       <c r="X13" s="55"/>
@@ -2443,7 +2761,7 @@
       <c r="D14" s="33"/>
       <c r="E14" s="19"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="86"/>
       <c r="H14" s="45"/>
       <c r="I14" s="19"/>
       <c r="J14" s="46"/>
@@ -2453,11 +2771,11 @@
       <c r="N14" s="19"/>
       <c r="O14" s="47"/>
       <c r="P14" s="33"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="71"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="69"/>
       <c r="S14" s="19"/>
       <c r="T14" s="33"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="33"/>
       <c r="W14" s="33"/>
       <c r="X14" s="35"/>
@@ -2472,49 +2790,49 @@
         <v>0.39</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D15" s="34">
         <v>19</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>69</v>
+        <v>53</v>
+      </c>
+      <c r="G15" s="86" t="s">
+        <v>63</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="P15" s="31">
         <v>8.18</v>
       </c>
-      <c r="Q15" s="67" t="s">
-        <v>205</v>
+      <c r="Q15" s="65" t="s">
+        <v>188</v>
       </c>
       <c r="R15" s="31">
         <v>36.5</v>
@@ -2525,20 +2843,20 @@
       <c r="T15" s="25">
         <v>0.46</v>
       </c>
-      <c r="U15" s="67">
+      <c r="U15" s="65">
         <v>3.49</v>
       </c>
       <c r="V15" s="25">
         <v>0.3</v>
       </c>
       <c r="W15" s="25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="X15" s="35">
         <v>2301</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="Z15" s="35">
         <v>3.42</v>
@@ -2552,7 +2870,7 @@
         <v>0.39</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D16" s="34">
         <v>19</v>
@@ -2561,39 +2879,39 @@
         <v>0.21</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="11">
+        <v>54</v>
+      </c>
+      <c r="G16" s="86">
         <v>344</v>
       </c>
       <c r="H16" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>160</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="J16" s="31">
         <v>1.9</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="O16" s="48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P16" s="31">
         <v>8.2100000000000009</v>
       </c>
-      <c r="Q16" s="67">
+      <c r="Q16" s="65">
         <v>1.5</v>
       </c>
       <c r="R16" s="31">
@@ -2605,20 +2923,20 @@
       <c r="T16" s="25">
         <v>0.52100000000000002</v>
       </c>
-      <c r="U16" s="67">
+      <c r="U16" s="65">
         <v>3.88</v>
       </c>
       <c r="V16" s="25">
         <v>0.216</v>
       </c>
       <c r="W16" s="25" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X16" s="35">
         <v>1865</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="Z16" s="35">
         <v>3.91</v>
@@ -2632,7 +2950,7 @@
         <v>0.39</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D17" s="34">
         <v>19</v>
@@ -2641,39 +2959,39 @@
         <v>0.21</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="G17" s="86" t="s">
+        <v>64</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="O17" s="48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q17" s="67">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="65">
         <v>1.6</v>
       </c>
       <c r="R17" s="31">
@@ -2685,20 +3003,20 @@
       <c r="T17" s="25">
         <v>0.48599999999999999</v>
       </c>
-      <c r="U17" s="67">
+      <c r="U17" s="65">
         <v>3.28</v>
       </c>
       <c r="V17" s="25">
         <v>0.184</v>
       </c>
       <c r="W17" s="25" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="X17" s="35">
         <v>1917</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="Z17" s="35">
         <v>2.74</v>
@@ -2721,40 +3039,40 @@
         <v>0.21</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="G18" s="86" t="s">
+        <v>235</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="J18" s="31">
         <v>1.9</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="O18" s="48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q18" s="67" t="s">
-        <v>174</v>
+        <v>185</v>
+      </c>
+      <c r="Q18" s="65" t="s">
+        <v>163</v>
       </c>
       <c r="R18" s="31">
         <v>36.9</v>
@@ -2765,20 +3083,20 @@
       <c r="T18" s="25">
         <v>0.54600000000000004</v>
       </c>
-      <c r="U18" s="67">
+      <c r="U18" s="65">
         <v>4.32</v>
       </c>
       <c r="V18" s="25">
         <v>0.23400000000000001</v>
       </c>
       <c r="W18" s="25" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="X18" s="35">
         <v>2456</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="Z18" s="35">
         <v>3.14</v>
@@ -2791,7 +3109,7 @@
       <c r="D19" s="34"/>
       <c r="E19" s="11"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="25"/>
       <c r="I19" s="11"/>
       <c r="J19" s="34"/>
@@ -2801,11 +3119,11 @@
       <c r="N19" s="11"/>
       <c r="O19" s="39"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="67"/>
+      <c r="Q19" s="65"/>
       <c r="R19" s="31"/>
       <c r="S19" s="11"/>
       <c r="T19" s="34"/>
-      <c r="U19" s="67"/>
+      <c r="U19" s="65"/>
       <c r="V19" s="31"/>
       <c r="W19" s="34"/>
       <c r="X19" s="55"/>
@@ -2821,7 +3139,7 @@
       <c r="D20" s="33"/>
       <c r="E20" s="19"/>
       <c r="F20" s="45"/>
-      <c r="G20" s="19"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="45"/>
       <c r="I20" s="19"/>
       <c r="J20" s="33"/>
@@ -2831,11 +3149,11 @@
       <c r="N20" s="19"/>
       <c r="O20" s="47"/>
       <c r="P20" s="33"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="71"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="69"/>
       <c r="S20" s="19"/>
       <c r="T20" s="33"/>
-      <c r="U20" s="72"/>
+      <c r="U20" s="70"/>
       <c r="V20" s="33"/>
       <c r="W20" s="33"/>
       <c r="X20" s="35"/>
@@ -2851,7 +3169,7 @@
       <c r="D21" s="34"/>
       <c r="E21" s="11"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="25"/>
       <c r="I21" s="11"/>
       <c r="J21" s="34"/>
@@ -2861,11 +3179,11 @@
       <c r="N21" s="11"/>
       <c r="O21" s="39"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="67"/>
+      <c r="Q21" s="65"/>
       <c r="R21" s="31"/>
       <c r="S21" s="11"/>
       <c r="T21" s="34"/>
-      <c r="U21" s="67"/>
+      <c r="U21" s="65"/>
       <c r="V21" s="34"/>
       <c r="W21" s="34"/>
       <c r="X21" s="35"/>
@@ -2885,43 +3203,43 @@
       <c r="D22" s="34">
         <v>18</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>55</v>
+      <c r="E22" s="14">
+        <v>0.21</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="G22" s="83" t="s">
+        <v>22</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="I22" s="67" t="s">
-        <v>170</v>
+        <v>146</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>159</v>
       </c>
       <c r="J22" s="31">
         <v>2</v>
       </c>
-      <c r="K22" s="67">
+      <c r="K22" s="65">
         <v>2.4</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="M22" s="67">
+        <v>168</v>
+      </c>
+      <c r="M22" s="65">
         <v>5.8</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="O22" s="39" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="P22" s="30">
         <v>8.1300000000000008</v>
       </c>
-      <c r="Q22" s="67">
+      <c r="Q22" s="65">
         <v>3.2</v>
       </c>
       <c r="R22" s="31">
@@ -2933,20 +3251,20 @@
       <c r="T22" s="25">
         <v>0.45</v>
       </c>
-      <c r="U22" s="68">
+      <c r="U22" s="66">
         <v>3.13</v>
       </c>
       <c r="V22" s="36" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="W22" s="25" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="X22" s="35">
         <v>2102</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Z22" s="35">
         <v>3.48</v>
@@ -2969,31 +3287,31 @@
         <v>0.21</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>25</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="67">
+        <v>146</v>
+      </c>
+      <c r="I23" s="65">
         <v>3.2</v>
       </c>
       <c r="J23" s="31">
         <v>1.9</v>
       </c>
-      <c r="K23" s="67">
+      <c r="K23" s="65">
         <v>2.2000000000000002</v>
       </c>
       <c r="L23" s="25">
         <v>0.19</v>
       </c>
-      <c r="M23" s="67">
+      <c r="M23" s="65">
         <v>5.4</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="O23" s="39">
         <v>501</v>
@@ -3001,7 +3319,7 @@
       <c r="P23" s="30">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q23" s="67">
+      <c r="Q23" s="65">
         <v>1.4</v>
       </c>
       <c r="R23" s="31">
@@ -3013,14 +3331,14 @@
       <c r="T23" s="25">
         <v>0.53</v>
       </c>
-      <c r="U23" s="68">
+      <c r="U23" s="66">
         <v>4.58</v>
       </c>
       <c r="V23" s="36" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="W23" s="25" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="X23" s="35">
         <v>1838</v>
@@ -3049,31 +3367,31 @@
         <v>0.21</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>78</v>
+        <v>67</v>
+      </c>
+      <c r="G24" s="83" t="s">
+        <v>68</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="I24" s="67">
+        <v>151</v>
+      </c>
+      <c r="I24" s="65">
         <v>3</v>
       </c>
       <c r="J24" s="31">
         <v>1.8</v>
       </c>
-      <c r="K24" s="67" t="s">
-        <v>173</v>
+      <c r="K24" s="65" t="s">
+        <v>162</v>
       </c>
       <c r="L24" s="25">
         <v>0.18</v>
       </c>
-      <c r="M24" s="67">
+      <c r="M24" s="65">
         <v>5.0999999999999996</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="O24" s="39">
         <v>517.03710000000001</v>
@@ -3081,7 +3399,7 @@
       <c r="P24" s="30">
         <v>8.2200000000000006</v>
       </c>
-      <c r="Q24" s="67">
+      <c r="Q24" s="65">
         <v>1.4</v>
       </c>
       <c r="R24" s="31">
@@ -3093,20 +3411,20 @@
       <c r="T24" s="25">
         <v>0.4</v>
       </c>
-      <c r="U24" s="68">
+      <c r="U24" s="66">
         <v>3.11</v>
       </c>
       <c r="V24" s="36" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="W24" s="25" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="X24" s="35">
         <v>1858</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="Z24" s="35">
         <v>2.84</v>
@@ -3129,31 +3447,31 @@
         <v>0.21</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="G25" s="83" t="s">
+        <v>236</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25" s="67">
+        <v>149</v>
+      </c>
+      <c r="I25" s="65">
         <v>3</v>
       </c>
       <c r="J25" s="31">
         <v>1.8</v>
       </c>
-      <c r="K25" s="67" t="s">
-        <v>174</v>
+      <c r="K25" s="65" t="s">
+        <v>163</v>
       </c>
       <c r="L25" s="25">
         <v>0.17</v>
       </c>
-      <c r="M25" s="67">
+      <c r="M25" s="65">
         <v>4.9000000000000004</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="O25" s="39">
         <v>477</v>
@@ -3161,7 +3479,7 @@
       <c r="P25" s="30">
         <v>8.24</v>
       </c>
-      <c r="Q25" s="67">
+      <c r="Q25" s="65">
         <v>1.7</v>
       </c>
       <c r="R25" s="31">
@@ -3173,11 +3491,11 @@
       <c r="T25" s="25">
         <v>0.54</v>
       </c>
-      <c r="U25" s="68">
+      <c r="U25" s="66">
         <v>4.72</v>
       </c>
       <c r="V25" s="36" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="W25" s="25">
         <v>1.83</v>
@@ -3186,7 +3504,7 @@
         <v>2546</v>
       </c>
       <c r="Y25" s="6" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="Z25" s="35">
         <v>3.16</v>
@@ -3201,21 +3519,21 @@
       <c r="D26" s="34"/>
       <c r="E26" s="11"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="67"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="31"/>
-      <c r="K26" s="67"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="25"/>
-      <c r="M26" s="67"/>
+      <c r="M26" s="65"/>
       <c r="N26" s="11"/>
       <c r="O26" s="39"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="67"/>
+      <c r="Q26" s="65"/>
       <c r="R26" s="31"/>
       <c r="S26" s="11"/>
       <c r="T26" s="25"/>
-      <c r="U26" s="68"/>
+      <c r="U26" s="66"/>
       <c r="V26" s="40"/>
       <c r="W26" s="25"/>
       <c r="X26" s="35"/>
@@ -3235,35 +3553,35 @@
       <c r="D27" s="34">
         <v>20</v>
       </c>
-      <c r="E27" s="14">
-        <v>0.21</v>
+      <c r="E27" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>30</v>
+        <v>59</v>
+      </c>
+      <c r="G27" s="83" t="s">
+        <v>237</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="I27" s="67">
+        <v>149</v>
+      </c>
+      <c r="I27" s="65">
         <v>3.3</v>
       </c>
       <c r="J27" s="31">
         <v>2</v>
       </c>
-      <c r="K27" s="67">
+      <c r="K27" s="65">
         <v>2.5</v>
       </c>
       <c r="L27" s="25">
         <v>0.19</v>
       </c>
-      <c r="M27" s="67">
+      <c r="M27" s="65">
         <v>5.7</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="O27" s="39">
         <v>577.88130000000001</v>
@@ -3271,7 +3589,7 @@
       <c r="P27" s="31">
         <v>8.24</v>
       </c>
-      <c r="Q27" s="67">
+      <c r="Q27" s="65">
         <v>4</v>
       </c>
       <c r="R27" s="31">
@@ -3283,14 +3601,14 @@
       <c r="T27" s="25">
         <v>0.47</v>
       </c>
-      <c r="U27" s="67">
+      <c r="U27" s="65">
         <v>3.89</v>
       </c>
       <c r="V27" s="26" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="X27" s="35">
         <v>2519</v>
@@ -3310,7 +3628,7 @@
         <v>0.39</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D28" s="34">
         <v>19</v>
@@ -3319,31 +3637,31 @@
         <v>0.21</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="G28" s="83" t="s">
+        <v>27</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="67">
+        <v>152</v>
+      </c>
+      <c r="I28" s="65">
         <v>3.3</v>
       </c>
       <c r="J28" s="31">
         <v>2</v>
       </c>
-      <c r="K28" s="67">
+      <c r="K28" s="65">
         <v>2.2000000000000002</v>
       </c>
       <c r="L28" s="25">
         <v>0.19</v>
       </c>
-      <c r="M28" s="67">
+      <c r="M28" s="65">
         <v>5.5</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="O28" s="39">
         <v>517.96460000000002</v>
@@ -3351,7 +3669,7 @@
       <c r="P28" s="31">
         <v>8.2200000000000006</v>
       </c>
-      <c r="Q28" s="67">
+      <c r="Q28" s="65">
         <v>1.6</v>
       </c>
       <c r="R28" s="31">
@@ -3363,11 +3681,11 @@
       <c r="T28" s="25">
         <v>0.51</v>
       </c>
-      <c r="U28" s="67">
+      <c r="U28" s="65">
         <v>3.28</v>
       </c>
       <c r="V28" s="26" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="W28" s="14">
         <v>1.8</v>
@@ -3376,7 +3694,7 @@
         <v>1893</v>
       </c>
       <c r="Y28" s="6" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="Z28" s="35">
         <v>2.87</v>
@@ -3390,7 +3708,7 @@
         <v>0.39</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D29" s="34">
         <v>19</v>
@@ -3399,31 +3717,31 @@
         <v>0.21</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="G29" s="83" t="s">
+        <v>26</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" s="67" t="s">
-        <v>169</v>
+        <v>148</v>
+      </c>
+      <c r="I29" s="65" t="s">
+        <v>158</v>
       </c>
       <c r="J29" s="31">
         <v>1.9</v>
       </c>
-      <c r="K29" s="67" t="s">
-        <v>173</v>
+      <c r="K29" s="65" t="s">
+        <v>162</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="M29" s="67">
+        <v>167</v>
+      </c>
+      <c r="M29" s="65">
         <v>5.4</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="O29" s="39">
         <v>530.02260000000001</v>
@@ -3431,8 +3749,8 @@
       <c r="P29" s="31">
         <v>8.2899999999999991</v>
       </c>
-      <c r="Q29" s="67" t="s">
-        <v>167</v>
+      <c r="Q29" s="65" t="s">
+        <v>156</v>
       </c>
       <c r="R29" s="31">
         <v>35.799999999999997</v>
@@ -3443,11 +3761,11 @@
       <c r="T29" s="25">
         <v>0.59</v>
       </c>
-      <c r="U29" s="67">
+      <c r="U29" s="65">
         <v>3.47</v>
       </c>
       <c r="V29" s="26" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="W29" s="14">
         <v>1.88</v>
@@ -3479,27 +3797,27 @@
         <v>0.21</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="G30" s="83" t="s">
+        <v>28</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I30" s="67">
+        <v>153</v>
+      </c>
+      <c r="I30" s="65">
         <v>3.3</v>
       </c>
       <c r="J30" s="31">
         <v>2</v>
       </c>
-      <c r="K30" s="67" t="s">
-        <v>175</v>
+      <c r="K30" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="L30" s="25">
         <v>0.19</v>
       </c>
-      <c r="M30" s="67">
+      <c r="M30" s="65">
         <v>5.6</v>
       </c>
       <c r="N30" s="21">
@@ -3511,8 +3829,8 @@
       <c r="P30" s="31">
         <v>8.2799999999999994</v>
       </c>
-      <c r="Q30" s="67" t="s">
-        <v>206</v>
+      <c r="Q30" s="65" t="s">
+        <v>189</v>
       </c>
       <c r="R30" s="31">
         <v>38.799999999999997</v>
@@ -3523,11 +3841,11 @@
       <c r="T30" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U30" s="67">
+      <c r="U30" s="65">
         <v>3.96</v>
       </c>
       <c r="V30" s="26" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="W30" s="14">
         <v>1.78</v>
@@ -3536,7 +3854,7 @@
         <v>2369</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="Z30" s="35">
         <v>3.11</v>
@@ -3549,21 +3867,21 @@
       <c r="D31" s="32"/>
       <c r="E31" s="18"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="18"/>
+      <c r="G31" s="85"/>
       <c r="H31" s="42"/>
       <c r="I31" s="18"/>
       <c r="J31" s="32"/>
       <c r="K31" s="18"/>
       <c r="L31" s="42"/>
-      <c r="M31" s="73"/>
+      <c r="M31" s="71"/>
       <c r="N31" s="18"/>
       <c r="O31" s="43"/>
       <c r="P31" s="42"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="70"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="68"/>
       <c r="S31" s="18"/>
       <c r="T31" s="42"/>
-      <c r="U31" s="73"/>
+      <c r="U31" s="71"/>
       <c r="V31" s="42"/>
       <c r="W31" s="18"/>
       <c r="X31" s="62"/>
@@ -3572,7 +3890,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32" s="9">
         <v>0.39</v>
@@ -3587,31 +3905,31 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>77</v>
+        <v>226</v>
+      </c>
+      <c r="G32" s="88" t="s">
+        <v>228</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="I32" s="67">
+        <v>154</v>
+      </c>
+      <c r="I32" s="65">
         <v>3.1</v>
       </c>
       <c r="J32" s="31">
         <v>1.8</v>
       </c>
-      <c r="K32" s="67">
+      <c r="K32" s="65">
         <v>2.1</v>
       </c>
       <c r="L32" s="25">
         <v>0.17</v>
       </c>
-      <c r="M32" s="67">
+      <c r="M32" s="65">
         <v>5.01</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O32" s="39">
         <v>467.41399999999999</v>
@@ -3619,7 +3937,7 @@
       <c r="P32" s="31">
         <v>8.24</v>
       </c>
-      <c r="Q32" s="67">
+      <c r="Q32" s="65">
         <v>1.5</v>
       </c>
       <c r="R32" s="31">
@@ -3631,67 +3949,67 @@
       <c r="T32" s="25">
         <v>0.41</v>
       </c>
-      <c r="U32" s="67">
+      <c r="U32" s="65">
         <v>3.26</v>
       </c>
       <c r="V32" s="14">
         <v>0.28399999999999997</v>
       </c>
       <c r="W32" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X32" s="35">
         <v>1965</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="Z32" s="35">
         <v>2.86</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B33" s="9">
         <v>0.43</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="93">
         <v>39</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="92">
         <v>18</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="91">
         <v>0.21099999999999999</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" s="67">
+        <v>227</v>
+      </c>
+      <c r="G33" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="H33" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" s="65">
         <v>2.8</v>
       </c>
-      <c r="J33" s="31">
+      <c r="J33" s="94">
         <v>1.7</v>
       </c>
-      <c r="K33" s="67">
+      <c r="K33" s="94">
         <v>1.8</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="91">
         <v>0.15</v>
       </c>
-      <c r="M33" s="67">
+      <c r="M33" s="65">
         <v>4.72</v>
       </c>
-      <c r="N33" s="21" t="s">
-        <v>184</v>
+      <c r="N33" s="95" t="s">
+        <v>171</v>
       </c>
       <c r="O33" s="39">
         <v>484.57339999999999</v>
@@ -3699,73 +4017,82 @@
       <c r="P33" s="31">
         <v>8.09</v>
       </c>
-      <c r="Q33" s="67">
+      <c r="Q33" s="65">
         <v>1.3</v>
       </c>
-      <c r="R33" s="31">
+      <c r="R33" s="94">
         <v>31.1</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="92">
         <v>130.19999999999999</v>
       </c>
-      <c r="T33" s="25">
+      <c r="T33" s="91">
         <v>0.52</v>
       </c>
-      <c r="U33" s="67">
+      <c r="U33" s="96">
         <v>3.72</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="97">
         <v>0.22</v>
       </c>
-      <c r="W33" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="X33" s="35">
+      <c r="W33" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="X33" s="98">
         <v>1728</v>
       </c>
-      <c r="Y33" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z33" s="35">
+      <c r="Y33" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z33" s="98">
         <v>3.2</v>
       </c>
     </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="90"/>
+      <c r="Q34" s="90"/>
+    </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Q37" s="69" t="s">
-        <v>207</v>
+      <c r="Q37" s="67" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
+      <c r="A38" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3777,12 +4104,1010 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14B3D76-7EB3-244F-8459-BDA2CA85D080}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="112"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="81">
+        <v>0.27</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="K7" s="35">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.86</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="35">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="108"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="65">
+        <v>5.3</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="34">
+        <v>516</v>
+      </c>
+      <c r="H11" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="55"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="107"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="J15" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="86">
+        <v>344</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="65">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0.216</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="65">
+        <v>1.6</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0.184</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="J18" s="24">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="55"/>
+    </row>
+    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="103"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="107"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="65">
+        <v>5.8</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="65">
+        <v>3.2</v>
+      </c>
+      <c r="I22" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="65">
+        <v>5.4</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="34">
+        <v>501</v>
+      </c>
+      <c r="H23" s="65">
+        <v>1.4</v>
+      </c>
+      <c r="I23" s="25">
+        <v>0.53</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="65">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="34">
+        <v>517.03710000000001</v>
+      </c>
+      <c r="H24" s="65">
+        <v>1.4</v>
+      </c>
+      <c r="I24" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="83" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="65">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="34">
+        <v>477</v>
+      </c>
+      <c r="H25" s="65">
+        <v>1.7</v>
+      </c>
+      <c r="I25" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="106"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="65">
+        <v>5.7</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="34">
+        <v>577.88130000000001</v>
+      </c>
+      <c r="H27" s="65">
+        <v>4</v>
+      </c>
+      <c r="I27" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" s="35">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="65">
+        <v>5.5</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="34">
+        <v>517.96460000000002</v>
+      </c>
+      <c r="H28" s="65">
+        <v>1.6</v>
+      </c>
+      <c r="I28" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="65">
+        <v>5.4</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="34">
+        <v>530.02260000000001</v>
+      </c>
+      <c r="H29" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="35">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="65">
+        <v>5.6</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="G30" s="34">
+        <v>529.55880000000002</v>
+      </c>
+      <c r="H30" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="62"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="103" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="65">
+        <v>5.01</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="34">
+        <v>467.41399999999999</v>
+      </c>
+      <c r="H32" s="65">
+        <v>1.5</v>
+      </c>
+      <c r="I32" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="K32" s="59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="96">
+        <v>4.72</v>
+      </c>
+      <c r="F33" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="92">
+        <v>484.57339999999999</v>
+      </c>
+      <c r="H33" s="96">
+        <v>1.3</v>
+      </c>
+      <c r="I33" s="91">
+        <v>0.52</v>
+      </c>
+      <c r="J33" s="97">
+        <v>0.22</v>
+      </c>
+      <c r="K33" s="98" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="114"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="114"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A36:H38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3792,13 +5117,13 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
@@ -3815,34 +5140,34 @@
         <v>15</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D1" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="49" t="s">
-        <v>122</v>
-      </c>
       <c r="J1" s="49" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
@@ -3850,32 +5175,32 @@
         <v>16</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F2" s="49"/>
       <c r="G2" s="49" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
@@ -3883,32 +5208,32 @@
         <v>17</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="49" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -3916,32 +5241,32 @@
         <v>18</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F4" s="52"/>
       <c r="G4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K4" s="51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
@@ -4090,7 +5415,7 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="73">
         <v>38</v>
       </c>
       <c r="C11" s="14">
@@ -4104,24 +5429,24 @@
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="23" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I11" s="11">
         <v>4.1900000000000004</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="23" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="73">
         <v>43</v>
       </c>
       <c r="C12" s="14">
@@ -4135,22 +5460,22 @@
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I12" s="5">
         <v>4.99</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="77"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="18"/>
       <c r="D13" s="42"/>
       <c r="E13" s="18"/>
@@ -4165,7 +5490,7 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="78"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="19"/>
       <c r="D14" s="45"/>
       <c r="E14" s="19"/>
@@ -4180,7 +5505,7 @@
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="73">
         <v>51</v>
       </c>
       <c r="C15" s="14">
@@ -4190,7 +5515,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="11">
@@ -4204,14 +5529,14 @@
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="23" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="73">
         <v>39</v>
       </c>
       <c r="C16" s="14">
@@ -4221,7 +5546,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="11">
@@ -4235,15 +5560,15 @@
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="23" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="76" t="s">
-        <v>231</v>
+      <c r="B17" s="73" t="s">
+        <v>214</v>
       </c>
       <c r="C17" s="14">
         <v>11</v>
@@ -4252,7 +5577,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="11">
@@ -4266,15 +5591,15 @@
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="23" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="76" t="s">
-        <v>232</v>
+      <c r="B18" s="73" t="s">
+        <v>215</v>
       </c>
       <c r="C18" s="14">
         <v>14</v>
@@ -4283,7 +5608,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="11">
@@ -4297,12 +5622,12 @@
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="23" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="76"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="11"/>
       <c r="D19" s="25"/>
       <c r="E19" s="11"/>
@@ -4317,7 +5642,7 @@
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="19"/>
       <c r="D20" s="45"/>
       <c r="E20" s="19"/>
@@ -4332,7 +5657,7 @@
       <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="76"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="11"/>
       <c r="D21" s="25"/>
       <c r="E21" s="11"/>
@@ -4347,132 +5672,132 @@
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="73">
         <v>39</v>
       </c>
-      <c r="C22" s="79">
+      <c r="C22" s="76">
         <v>10</v>
       </c>
       <c r="D22" s="25">
         <v>11</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="23" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="73">
         <v>37</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="76">
         <v>15</v>
       </c>
       <c r="D23" s="25">
         <v>5</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="23" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="23" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="C24" s="79">
+      <c r="B24" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="76">
         <v>10</v>
       </c>
       <c r="D24" s="25">
         <v>7</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="23" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="23" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="73">
         <v>43</v>
       </c>
-      <c r="C25" s="79">
+      <c r="C25" s="76">
         <v>16</v>
       </c>
       <c r="D25" s="25">
         <v>8</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="23" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="23" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="80"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="25"/>
       <c r="E26" s="11"/>
       <c r="F26" s="28"/>
@@ -4486,130 +5811,130 @@
       <c r="A27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="73">
         <v>67</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="76">
         <v>10</v>
       </c>
       <c r="D27" s="25">
         <v>5</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="23" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="23" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="73">
         <v>41</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="76">
         <v>15</v>
       </c>
       <c r="D28" s="25">
         <v>9</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="23" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="23" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="73">
         <v>43</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="76">
         <v>10</v>
       </c>
       <c r="D29" s="25">
         <v>6</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="23" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" s="23" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="79">
+      <c r="B30" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="76">
         <v>16</v>
       </c>
       <c r="D30" s="25">
         <v>9</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="23" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J30" s="23"/>
       <c r="K30" s="23" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="61"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="42"/>
       <c r="E31" s="18"/>
       <c r="F31" s="42"/>
@@ -4621,12 +5946,12 @@
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="65">
+        <v>48</v>
+      </c>
+      <c r="B32" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="14">
         <v>29</v>
       </c>
       <c r="D32" s="25">
@@ -4639,22 +5964,22 @@
       <c r="G32" s="12">
         <v>59</v>
       </c>
-      <c r="H32" s="66">
+      <c r="H32" s="12">
         <v>33.700000000000003</v>
       </c>
-      <c r="I32" s="66">
+      <c r="I32" s="12">
         <v>8.06</v>
       </c>
-      <c r="K32" s="66" t="s">
-        <v>151</v>
+      <c r="K32" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="76" t="s">
-        <v>236</v>
+        <v>49</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>219</v>
       </c>
       <c r="C33" s="63">
         <v>16</v>
@@ -4669,47 +5994,47 @@
       <c r="G33" s="12">
         <v>22.89</v>
       </c>
-      <c r="H33" s="66">
+      <c r="H33" s="12">
         <v>7.69</v>
       </c>
-      <c r="I33" s="66">
+      <c r="I33" s="12">
         <v>4.67</v>
       </c>
-      <c r="K33" s="66" t="s">
-        <v>152</v>
+      <c r="K33" s="12" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
+      <c r="A38" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4717,4 +6042,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CD9490-951E-F94B-BE66-BEE9783FEFCA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Anova tables.xlsx
+++ b/Anova tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/OCS_microarthropods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A63D8A71-3032-494D-8BF1-9794060F5A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F792BF4-C3B7-0543-8B37-7E4B4CD9A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="2" xr2:uid="{11F10D1D-61B6-B04A-968F-0DEA3959953D}"/>
+    <workbookView xWindow="21440" yWindow="-28300" windowWidth="34560" windowHeight="20440" activeTab="2" xr2:uid="{11F10D1D-61B6-B04A-968F-0DEA3959953D}"/>
   </bookViews>
   <sheets>
     <sheet name="All soil health indicators" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Select soil microarthropods" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="247">
   <si>
     <t>P-value</t>
   </si>
@@ -300,114 +299,15 @@
     <t>0.066**</t>
   </si>
   <si>
-    <t>nbinom1</t>
-  </si>
-  <si>
     <t>log</t>
   </si>
   <si>
-    <t>total_collembola</t>
-  </si>
-  <si>
-    <t>isotomidae</t>
-  </si>
-  <si>
-    <t>onychiuridae</t>
-  </si>
-  <si>
     <t>tweedie</t>
   </si>
   <si>
-    <t>Sminthuridae</t>
-  </si>
-  <si>
-    <t>Total mites</t>
-  </si>
-  <si>
     <t>26 (a)</t>
   </si>
   <si>
-    <t>17.1 (b)</t>
-  </si>
-  <si>
-    <t>26.5 (a)</t>
-  </si>
-  <si>
-    <t>54.1 (a)</t>
-  </si>
-  <si>
-    <t>24.9 (bc)</t>
-  </si>
-  <si>
-    <t>27.9 (ab)</t>
-  </si>
-  <si>
-    <t>Astigmata</t>
-  </si>
-  <si>
-    <t>13.93 (a)</t>
-  </si>
-  <si>
-    <t>2.57 (b)</t>
-  </si>
-  <si>
-    <t>7.18 (ab)</t>
-  </si>
-  <si>
-    <t>4.17 (ab)</t>
-  </si>
-  <si>
-    <t>9.98 (a)</t>
-  </si>
-  <si>
-    <t>15.06 (a)</t>
-  </si>
-  <si>
-    <t>8.109 (a)</t>
-  </si>
-  <si>
-    <t>5.9 (a)</t>
-  </si>
-  <si>
-    <t>9.2 (a)</t>
-  </si>
-  <si>
-    <t>5.72 (b)</t>
-  </si>
-  <si>
-    <t>Mesostigmata</t>
-  </si>
-  <si>
-    <t>12.36 (a)</t>
-  </si>
-  <si>
-    <t>5.67 (ab)</t>
-  </si>
-  <si>
-    <t>4.76 (ab)</t>
-  </si>
-  <si>
-    <t>1.87 (b)</t>
-  </si>
-  <si>
-    <t>3.43 (a)</t>
-  </si>
-  <si>
-    <t>3.07 (a)</t>
-  </si>
-  <si>
-    <t>5.71 (a)</t>
-  </si>
-  <si>
-    <t>5.13 (a)</t>
-  </si>
-  <si>
-    <t>Oribatidea</t>
-  </si>
-  <si>
-    <t>Phoretic Hypopi</t>
-  </si>
-  <si>
     <t>5.156 (a)</t>
   </si>
   <si>
@@ -429,18 +329,6 @@
     <t>3.09 (b)</t>
   </si>
   <si>
-    <t>13.7 (a)*</t>
-  </si>
-  <si>
-    <t>15.7 (a)*</t>
-  </si>
-  <si>
-    <t>14.9 (a)*</t>
-  </si>
-  <si>
-    <t>12.1 (c)*</t>
-  </si>
-  <si>
     <t>1.69 (b)*</t>
   </si>
   <si>
@@ -712,12 +600,6 @@
   </si>
   <si>
     <t>6 (a)</t>
-  </si>
-  <si>
-    <t>2 (a)</t>
-  </si>
-  <si>
-    <t>4 (a)</t>
   </si>
   <si>
     <t>259 (A)</t>
@@ -887,7 +769,139 @@
     <t>Predicted Soil Protein (mg protein g-1 soil)</t>
   </si>
   <si>
-    <t>Total microinvertebrates</t>
+    <t>Tweedie</t>
+  </si>
+  <si>
+    <r>
+      <t>Total microinvertebrates (individuals Kg</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> soil)</t>
+    </r>
+  </si>
+  <si>
+    <t>Total collembola (individuals Kg-1 soil)</t>
+  </si>
+  <si>
+    <t>Nbinom1</t>
+  </si>
+  <si>
+    <t>Entomobryidae (individuals Kg-1 soil)</t>
+  </si>
+  <si>
+    <t>Isotomidae (individuals Kg-1 soil)</t>
+  </si>
+  <si>
+    <t>Onychiuridae (individuals Kg-1 soil)</t>
+  </si>
+  <si>
+    <t>Sminthuridae  (individuals Kg-1 soil)</t>
+  </si>
+  <si>
+    <t>54 (a)</t>
+  </si>
+  <si>
+    <t>12 (c)*</t>
+  </si>
+  <si>
+    <t>14 (a)*</t>
+  </si>
+  <si>
+    <t>16 (a)*</t>
+  </si>
+  <si>
+    <t>14 (a)</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>12 (a)</t>
+  </si>
+  <si>
+    <t>11 (a)</t>
+  </si>
+  <si>
+    <t>13 (a)</t>
+  </si>
+  <si>
+    <t>15 (a)</t>
+  </si>
+  <si>
+    <t>8 (a)</t>
+  </si>
+  <si>
+    <t>9 (a)</t>
+  </si>
+  <si>
+    <t>28 (b)</t>
+  </si>
+  <si>
+    <t>2 (bc)</t>
+  </si>
+  <si>
+    <t>27 (a)</t>
+  </si>
+  <si>
+    <t>17 (b)</t>
+  </si>
+  <si>
+    <t>Total mites (individuals Kg-1 soil)</t>
+  </si>
+  <si>
+    <t>Astigmata (individuals Kg-1 soil)</t>
+  </si>
+  <si>
+    <t>Mesostigmata (individuals Kg-1 soil)</t>
+  </si>
+  <si>
+    <t>Oribatida (individuals Kg-1 soil)</t>
+  </si>
+  <si>
+    <t>Phoretic hypopi (individuals Kg-1 soil)</t>
+  </si>
+  <si>
+    <t>10 (a)</t>
+  </si>
+  <si>
+    <t>4 (ab)</t>
+  </si>
+  <si>
+    <t>7 (ab)</t>
+  </si>
+  <si>
+    <t>3 (b)</t>
+  </si>
+  <si>
+    <t>6 (b)</t>
+  </si>
+  <si>
+    <t>3 (a)</t>
+  </si>
+  <si>
+    <t>6 (ab)</t>
+  </si>
+  <si>
+    <t>5 (ab)</t>
+  </si>
+  <si>
+    <t>2 (b)</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1392,9 +1406,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,6 +1554,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1881,39 +1922,39 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A38" sqref="A38:H40"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="67" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="67" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" style="67" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="67"/>
-    <col min="17" max="17" width="19.83203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="67" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" style="67" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="67"/>
-    <col min="21" max="21" width="18" style="67" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" style="67" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="67"/>
+    <col min="1" max="1" width="34.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="66" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="66" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="66" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="66"/>
+    <col min="17" max="17" width="19.83203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="66" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="66" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="66"/>
+    <col min="21" max="21" width="18" style="66" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="66" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22" x14ac:dyDescent="0.25">
@@ -1921,16 +1962,16 @@
         <v>15</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="F1" s="49" t="s">
         <v>44</v>
@@ -1945,22 +1986,22 @@
         <v>47</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="L1" s="49" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="M1" s="49" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="N1" s="49" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="O1" s="49" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="P1" s="49" t="s">
         <v>19</v>
@@ -2015,7 +2056,7 @@
       <c r="F2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="78" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="49" t="s">
@@ -2095,7 +2136,7 @@
       <c r="F3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="78" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="49" t="s">
@@ -2117,43 +2158,43 @@
         <v>24</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="O3" s="49" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="49" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="Q3" s="49" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="R3" s="49" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="S3" s="49" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="T3" s="49" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="U3" s="49" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="V3" s="49" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="W3" s="49" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="X3" s="49" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="Y3" s="49" t="s">
         <v>24</v>
       </c>
       <c r="Z3" s="49" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -2175,7 +2216,7 @@
       <c r="F4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="79" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="52" t="s">
@@ -2245,7 +2286,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="5"/>
       <c r="F5" s="35"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
@@ -2285,7 +2326,7 @@
       <c r="F6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="81" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="24">
@@ -2365,7 +2406,7 @@
       <c r="F7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="80">
         <v>0.27</v>
       </c>
       <c r="H7" s="24">
@@ -2445,7 +2486,7 @@
       <c r="F8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="81" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="24">
@@ -2513,7 +2554,7 @@
       <c r="D9" s="42"/>
       <c r="E9" s="54"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="79"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="55"/>
       <c r="I9" s="54"/>
       <c r="J9" s="55"/>
@@ -2543,7 +2584,7 @@
       <c r="D10" s="45"/>
       <c r="E10" s="58"/>
       <c r="F10" s="59"/>
-      <c r="G10" s="81"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="59"/>
       <c r="I10" s="58"/>
       <c r="J10" s="59"/>
@@ -2572,7 +2613,7 @@
         <v>0.4</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D11" s="34">
         <v>19</v>
@@ -2583,29 +2624,29 @@
       <c r="F11" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="83" t="s">
-        <v>234</v>
+      <c r="G11" s="82" t="s">
+        <v>195</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="M11" s="14">
         <v>5.3</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="O11" s="39">
         <v>516</v>
@@ -2613,8 +2654,8 @@
       <c r="P11" s="30">
         <v>8.1969999999999992</v>
       </c>
-      <c r="Q11" s="72" t="s">
-        <v>186</v>
+      <c r="Q11" s="71" t="s">
+        <v>149</v>
       </c>
       <c r="R11" s="31">
         <v>33.700000000000003</v>
@@ -2623,13 +2664,13 @@
         <v>161</v>
       </c>
       <c r="T11" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="U11" s="65">
+        <v>154</v>
+      </c>
+      <c r="U11" s="64">
         <v>3.81</v>
       </c>
       <c r="V11" s="36" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="W11" s="40" t="s">
         <v>76</v>
@@ -2638,7 +2679,7 @@
         <v>2067</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="Z11" s="35">
         <v>3.16</v>
@@ -2652,7 +2693,7 @@
         <v>0.39</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D12" s="34">
         <v>19</v>
@@ -2663,38 +2704,38 @@
       <c r="F12" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="83" t="s">
         <v>62</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="O12" s="39" t="s">
         <v>69</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q12" s="72" t="s">
-        <v>187</v>
+        <v>148</v>
+      </c>
+      <c r="Q12" s="71" t="s">
+        <v>150</v>
       </c>
       <c r="R12" s="31">
         <v>36.200000000000003</v>
@@ -2703,13 +2744,13 @@
         <v>165</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="U12" s="65">
+        <v>155</v>
+      </c>
+      <c r="U12" s="64">
         <v>3.64</v>
       </c>
       <c r="V12" s="36" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="W12" s="40" t="s">
         <v>77</v>
@@ -2718,7 +2759,7 @@
         <v>2174</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="Z12" s="35">
         <v>2.99</v>
@@ -2731,7 +2772,7 @@
       <c r="D13" s="32"/>
       <c r="E13" s="18"/>
       <c r="F13" s="42"/>
-      <c r="G13" s="85"/>
+      <c r="G13" s="84"/>
       <c r="H13" s="42"/>
       <c r="I13" s="18"/>
       <c r="J13" s="42"/>
@@ -2741,11 +2782,11 @@
       <c r="N13" s="32"/>
       <c r="O13" s="43"/>
       <c r="P13" s="32"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="68"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="67"/>
       <c r="S13" s="18"/>
       <c r="T13" s="32"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
       <c r="X13" s="55"/>
@@ -2761,7 +2802,7 @@
       <c r="D14" s="33"/>
       <c r="E14" s="19"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="86"/>
+      <c r="G14" s="85"/>
       <c r="H14" s="45"/>
       <c r="I14" s="19"/>
       <c r="J14" s="46"/>
@@ -2771,11 +2812,11 @@
       <c r="N14" s="19"/>
       <c r="O14" s="47"/>
       <c r="P14" s="33"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="68"/>
       <c r="S14" s="19"/>
       <c r="T14" s="33"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="33"/>
       <c r="W14" s="33"/>
       <c r="X14" s="35"/>
@@ -2790,7 +2831,7 @@
         <v>0.39</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D15" s="34">
         <v>19</v>
@@ -2801,29 +2842,29 @@
       <c r="F15" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="85" t="s">
         <v>63</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="O15" s="48" t="s">
         <v>71</v>
@@ -2831,8 +2872,8 @@
       <c r="P15" s="31">
         <v>8.18</v>
       </c>
-      <c r="Q15" s="65" t="s">
-        <v>188</v>
+      <c r="Q15" s="64" t="s">
+        <v>151</v>
       </c>
       <c r="R15" s="31">
         <v>36.5</v>
@@ -2843,7 +2884,7 @@
       <c r="T15" s="25">
         <v>0.46</v>
       </c>
-      <c r="U15" s="65">
+      <c r="U15" s="64">
         <v>3.49</v>
       </c>
       <c r="V15" s="25">
@@ -2856,7 +2897,7 @@
         <v>2301</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="Z15" s="35">
         <v>3.42</v>
@@ -2870,7 +2911,7 @@
         <v>0.39</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D16" s="34">
         <v>19</v>
@@ -2881,29 +2922,29 @@
       <c r="F16" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="86">
+      <c r="G16" s="85">
         <v>344</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="J16" s="31">
         <v>1.9</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="O16" s="48" t="s">
         <v>29</v>
@@ -2911,7 +2952,7 @@
       <c r="P16" s="31">
         <v>8.2100000000000009</v>
       </c>
-      <c r="Q16" s="65">
+      <c r="Q16" s="64">
         <v>1.5</v>
       </c>
       <c r="R16" s="31">
@@ -2923,7 +2964,7 @@
       <c r="T16" s="25">
         <v>0.52100000000000002</v>
       </c>
-      <c r="U16" s="65">
+      <c r="U16" s="64">
         <v>3.88</v>
       </c>
       <c r="V16" s="25">
@@ -2936,7 +2977,7 @@
         <v>1865</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="Z16" s="35">
         <v>3.91</v>
@@ -2950,7 +2991,7 @@
         <v>0.39</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D17" s="34">
         <v>19</v>
@@ -2961,37 +3002,37 @@
       <c r="F17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="85" t="s">
         <v>64</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="64" t="s">
-        <v>161</v>
+        <v>109</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>124</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="O17" s="48" t="s">
         <v>30</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q17" s="65">
+        <v>148</v>
+      </c>
+      <c r="Q17" s="64">
         <v>1.6</v>
       </c>
       <c r="R17" s="31">
@@ -3003,7 +3044,7 @@
       <c r="T17" s="25">
         <v>0.48599999999999999</v>
       </c>
-      <c r="U17" s="65">
+      <c r="U17" s="64">
         <v>3.28</v>
       </c>
       <c r="V17" s="25">
@@ -3016,7 +3057,7 @@
         <v>1917</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="Z17" s="35">
         <v>2.74</v>
@@ -3041,38 +3082,38 @@
       <c r="F18" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="86" t="s">
-        <v>235</v>
+      <c r="G18" s="85" t="s">
+        <v>196</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="J18" s="31">
         <v>1.9</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="O18" s="48" t="s">
         <v>31</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q18" s="65" t="s">
-        <v>163</v>
+        <v>148</v>
+      </c>
+      <c r="Q18" s="64" t="s">
+        <v>126</v>
       </c>
       <c r="R18" s="31">
         <v>36.9</v>
@@ -3083,7 +3124,7 @@
       <c r="T18" s="25">
         <v>0.54600000000000004</v>
       </c>
-      <c r="U18" s="65">
+      <c r="U18" s="64">
         <v>4.32</v>
       </c>
       <c r="V18" s="25">
@@ -3096,7 +3137,7 @@
         <v>2456</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="Z18" s="35">
         <v>3.14</v>
@@ -3109,7 +3150,7 @@
       <c r="D19" s="34"/>
       <c r="E19" s="11"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="86"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="25"/>
       <c r="I19" s="11"/>
       <c r="J19" s="34"/>
@@ -3119,11 +3160,11 @@
       <c r="N19" s="11"/>
       <c r="O19" s="39"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="65"/>
+      <c r="Q19" s="64"/>
       <c r="R19" s="31"/>
       <c r="S19" s="11"/>
       <c r="T19" s="34"/>
-      <c r="U19" s="65"/>
+      <c r="U19" s="64"/>
       <c r="V19" s="31"/>
       <c r="W19" s="34"/>
       <c r="X19" s="55"/>
@@ -3139,7 +3180,7 @@
       <c r="D20" s="33"/>
       <c r="E20" s="19"/>
       <c r="F20" s="45"/>
-      <c r="G20" s="87"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="45"/>
       <c r="I20" s="19"/>
       <c r="J20" s="33"/>
@@ -3149,11 +3190,11 @@
       <c r="N20" s="19"/>
       <c r="O20" s="47"/>
       <c r="P20" s="33"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="68"/>
       <c r="S20" s="19"/>
       <c r="T20" s="33"/>
-      <c r="U20" s="70"/>
+      <c r="U20" s="69"/>
       <c r="V20" s="33"/>
       <c r="W20" s="33"/>
       <c r="X20" s="35"/>
@@ -3169,7 +3210,7 @@
       <c r="D21" s="34"/>
       <c r="E21" s="11"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="86"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="25"/>
       <c r="I21" s="11"/>
       <c r="J21" s="34"/>
@@ -3179,11 +3220,11 @@
       <c r="N21" s="11"/>
       <c r="O21" s="39"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="65"/>
+      <c r="Q21" s="64"/>
       <c r="R21" s="31"/>
       <c r="S21" s="11"/>
       <c r="T21" s="34"/>
-      <c r="U21" s="65"/>
+      <c r="U21" s="64"/>
       <c r="V21" s="34"/>
       <c r="W21" s="34"/>
       <c r="X21" s="35"/>
@@ -3209,29 +3250,29 @@
       <c r="F22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="83" t="s">
+      <c r="G22" s="82" t="s">
         <v>22</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="65" t="s">
-        <v>159</v>
+        <v>109</v>
+      </c>
+      <c r="I22" s="64" t="s">
+        <v>122</v>
       </c>
       <c r="J22" s="31">
         <v>2</v>
       </c>
-      <c r="K22" s="65">
+      <c r="K22" s="64">
         <v>2.4</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="M22" s="65">
+        <v>131</v>
+      </c>
+      <c r="M22" s="64">
         <v>5.8</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="O22" s="39" t="s">
         <v>70</v>
@@ -3239,7 +3280,7 @@
       <c r="P22" s="30">
         <v>8.1300000000000008</v>
       </c>
-      <c r="Q22" s="65">
+      <c r="Q22" s="64">
         <v>3.2</v>
       </c>
       <c r="R22" s="31">
@@ -3251,11 +3292,11 @@
       <c r="T22" s="25">
         <v>0.45</v>
       </c>
-      <c r="U22" s="66">
+      <c r="U22" s="65">
         <v>3.13</v>
       </c>
       <c r="V22" s="36" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="W22" s="25" t="s">
         <v>78</v>
@@ -3289,29 +3330,29 @@
       <c r="F23" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="83" t="s">
+      <c r="G23" s="82" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="65">
+        <v>109</v>
+      </c>
+      <c r="I23" s="64">
         <v>3.2</v>
       </c>
       <c r="J23" s="31">
         <v>1.9</v>
       </c>
-      <c r="K23" s="65">
+      <c r="K23" s="64">
         <v>2.2000000000000002</v>
       </c>
       <c r="L23" s="25">
         <v>0.19</v>
       </c>
-      <c r="M23" s="65">
+      <c r="M23" s="64">
         <v>5.4</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="O23" s="39">
         <v>501</v>
@@ -3319,7 +3360,7 @@
       <c r="P23" s="30">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q23" s="65">
+      <c r="Q23" s="64">
         <v>1.4</v>
       </c>
       <c r="R23" s="31">
@@ -3331,11 +3372,11 @@
       <c r="T23" s="25">
         <v>0.53</v>
       </c>
-      <c r="U23" s="66">
+      <c r="U23" s="65">
         <v>4.58</v>
       </c>
       <c r="V23" s="36" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="W23" s="25" t="s">
         <v>79</v>
@@ -3369,29 +3410,29 @@
       <c r="F24" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="83" t="s">
+      <c r="G24" s="82" t="s">
         <v>68</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="65">
+        <v>114</v>
+      </c>
+      <c r="I24" s="64">
         <v>3</v>
       </c>
       <c r="J24" s="31">
         <v>1.8</v>
       </c>
-      <c r="K24" s="65" t="s">
-        <v>162</v>
+      <c r="K24" s="64" t="s">
+        <v>125</v>
       </c>
       <c r="L24" s="25">
         <v>0.18</v>
       </c>
-      <c r="M24" s="65">
+      <c r="M24" s="64">
         <v>5.0999999999999996</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="O24" s="39">
         <v>517.03710000000001</v>
@@ -3399,7 +3440,7 @@
       <c r="P24" s="30">
         <v>8.2200000000000006</v>
       </c>
-      <c r="Q24" s="65">
+      <c r="Q24" s="64">
         <v>1.4</v>
       </c>
       <c r="R24" s="31">
@@ -3411,11 +3452,11 @@
       <c r="T24" s="25">
         <v>0.4</v>
       </c>
-      <c r="U24" s="66">
+      <c r="U24" s="65">
         <v>3.11</v>
       </c>
       <c r="V24" s="36" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="W24" s="25" t="s">
         <v>80</v>
@@ -3424,7 +3465,7 @@
         <v>1858</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="Z24" s="35">
         <v>2.84</v>
@@ -3449,29 +3490,29 @@
       <c r="F25" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="83" t="s">
-        <v>236</v>
+      <c r="G25" s="82" t="s">
+        <v>197</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="I25" s="65">
+        <v>112</v>
+      </c>
+      <c r="I25" s="64">
         <v>3</v>
       </c>
       <c r="J25" s="31">
         <v>1.8</v>
       </c>
-      <c r="K25" s="65" t="s">
-        <v>163</v>
+      <c r="K25" s="64" t="s">
+        <v>126</v>
       </c>
       <c r="L25" s="25">
         <v>0.17</v>
       </c>
-      <c r="M25" s="65">
+      <c r="M25" s="64">
         <v>4.9000000000000004</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="O25" s="39">
         <v>477</v>
@@ -3479,7 +3520,7 @@
       <c r="P25" s="30">
         <v>8.24</v>
       </c>
-      <c r="Q25" s="65">
+      <c r="Q25" s="64">
         <v>1.7</v>
       </c>
       <c r="R25" s="31">
@@ -3491,11 +3532,11 @@
       <c r="T25" s="25">
         <v>0.54</v>
       </c>
-      <c r="U25" s="66">
+      <c r="U25" s="65">
         <v>4.72</v>
       </c>
       <c r="V25" s="36" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="W25" s="25">
         <v>1.83</v>
@@ -3504,7 +3545,7 @@
         <v>2546</v>
       </c>
       <c r="Y25" s="6" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="Z25" s="35">
         <v>3.16</v>
@@ -3519,21 +3560,21 @@
       <c r="D26" s="34"/>
       <c r="E26" s="11"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="83"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="65"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="31"/>
-      <c r="K26" s="65"/>
+      <c r="K26" s="64"/>
       <c r="L26" s="25"/>
-      <c r="M26" s="65"/>
+      <c r="M26" s="64"/>
       <c r="N26" s="11"/>
       <c r="O26" s="39"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="65"/>
+      <c r="Q26" s="64"/>
       <c r="R26" s="31"/>
       <c r="S26" s="11"/>
       <c r="T26" s="25"/>
-      <c r="U26" s="66"/>
+      <c r="U26" s="65"/>
       <c r="V26" s="40"/>
       <c r="W26" s="25"/>
       <c r="X26" s="35"/>
@@ -3559,29 +3600,29 @@
       <c r="F27" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="83" t="s">
-        <v>237</v>
+      <c r="G27" s="82" t="s">
+        <v>198</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="I27" s="65">
+        <v>112</v>
+      </c>
+      <c r="I27" s="64">
         <v>3.3</v>
       </c>
       <c r="J27" s="31">
         <v>2</v>
       </c>
-      <c r="K27" s="65">
+      <c r="K27" s="64">
         <v>2.5</v>
       </c>
       <c r="L27" s="25">
         <v>0.19</v>
       </c>
-      <c r="M27" s="65">
+      <c r="M27" s="64">
         <v>5.7</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="O27" s="39">
         <v>577.88130000000001</v>
@@ -3589,7 +3630,7 @@
       <c r="P27" s="31">
         <v>8.24</v>
       </c>
-      <c r="Q27" s="65">
+      <c r="Q27" s="64">
         <v>4</v>
       </c>
       <c r="R27" s="31">
@@ -3601,11 +3642,11 @@
       <c r="T27" s="25">
         <v>0.47</v>
       </c>
-      <c r="U27" s="65">
+      <c r="U27" s="64">
         <v>3.89</v>
       </c>
       <c r="V27" s="26" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="W27" s="14" t="s">
         <v>81</v>
@@ -3628,7 +3669,7 @@
         <v>0.39</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D28" s="34">
         <v>19</v>
@@ -3639,29 +3680,29 @@
       <c r="F28" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="G28" s="82" t="s">
         <v>27</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="I28" s="65">
+        <v>115</v>
+      </c>
+      <c r="I28" s="64">
         <v>3.3</v>
       </c>
       <c r="J28" s="31">
         <v>2</v>
       </c>
-      <c r="K28" s="65">
+      <c r="K28" s="64">
         <v>2.2000000000000002</v>
       </c>
       <c r="L28" s="25">
         <v>0.19</v>
       </c>
-      <c r="M28" s="65">
+      <c r="M28" s="64">
         <v>5.5</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O28" s="39">
         <v>517.96460000000002</v>
@@ -3669,7 +3710,7 @@
       <c r="P28" s="31">
         <v>8.2200000000000006</v>
       </c>
-      <c r="Q28" s="65">
+      <c r="Q28" s="64">
         <v>1.6</v>
       </c>
       <c r="R28" s="31">
@@ -3681,11 +3722,11 @@
       <c r="T28" s="25">
         <v>0.51</v>
       </c>
-      <c r="U28" s="65">
+      <c r="U28" s="64">
         <v>3.28</v>
       </c>
       <c r="V28" s="26" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="W28" s="14">
         <v>1.8</v>
@@ -3694,7 +3735,7 @@
         <v>1893</v>
       </c>
       <c r="Y28" s="6" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="Z28" s="35">
         <v>2.87</v>
@@ -3708,7 +3749,7 @@
         <v>0.39</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D29" s="34">
         <v>19</v>
@@ -3719,29 +3760,29 @@
       <c r="F29" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="83" t="s">
+      <c r="G29" s="82" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="I29" s="65" t="s">
-        <v>158</v>
+        <v>111</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>121</v>
       </c>
       <c r="J29" s="31">
         <v>1.9</v>
       </c>
-      <c r="K29" s="65" t="s">
-        <v>162</v>
+      <c r="K29" s="64" t="s">
+        <v>125</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="M29" s="65">
+        <v>130</v>
+      </c>
+      <c r="M29" s="64">
         <v>5.4</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O29" s="39">
         <v>530.02260000000001</v>
@@ -3749,8 +3790,8 @@
       <c r="P29" s="31">
         <v>8.2899999999999991</v>
       </c>
-      <c r="Q29" s="65" t="s">
-        <v>156</v>
+      <c r="Q29" s="64" t="s">
+        <v>119</v>
       </c>
       <c r="R29" s="31">
         <v>35.799999999999997</v>
@@ -3761,11 +3802,11 @@
       <c r="T29" s="25">
         <v>0.59</v>
       </c>
-      <c r="U29" s="65">
+      <c r="U29" s="64">
         <v>3.47</v>
       </c>
       <c r="V29" s="26" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="W29" s="14">
         <v>1.88</v>
@@ -3799,25 +3840,25 @@
       <c r="F30" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="82" t="s">
         <v>28</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="I30" s="65">
+        <v>116</v>
+      </c>
+      <c r="I30" s="64">
         <v>3.3</v>
       </c>
       <c r="J30" s="31">
         <v>2</v>
       </c>
-      <c r="K30" s="65" t="s">
-        <v>164</v>
+      <c r="K30" s="64" t="s">
+        <v>127</v>
       </c>
       <c r="L30" s="25">
         <v>0.19</v>
       </c>
-      <c r="M30" s="65">
+      <c r="M30" s="64">
         <v>5.6</v>
       </c>
       <c r="N30" s="21">
@@ -3829,8 +3870,8 @@
       <c r="P30" s="31">
         <v>8.2799999999999994</v>
       </c>
-      <c r="Q30" s="65" t="s">
-        <v>189</v>
+      <c r="Q30" s="64" t="s">
+        <v>152</v>
       </c>
       <c r="R30" s="31">
         <v>38.799999999999997</v>
@@ -3841,11 +3882,11 @@
       <c r="T30" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U30" s="65">
+      <c r="U30" s="64">
         <v>3.96</v>
       </c>
       <c r="V30" s="26" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="W30" s="14">
         <v>1.78</v>
@@ -3854,7 +3895,7 @@
         <v>2369</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="Z30" s="35">
         <v>3.11</v>
@@ -3867,21 +3908,21 @@
       <c r="D31" s="32"/>
       <c r="E31" s="18"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="85"/>
+      <c r="G31" s="84"/>
       <c r="H31" s="42"/>
       <c r="I31" s="18"/>
       <c r="J31" s="32"/>
       <c r="K31" s="18"/>
       <c r="L31" s="42"/>
-      <c r="M31" s="71"/>
+      <c r="M31" s="70"/>
       <c r="N31" s="18"/>
       <c r="O31" s="43"/>
       <c r="P31" s="42"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="68"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="67"/>
       <c r="S31" s="18"/>
       <c r="T31" s="42"/>
-      <c r="U31" s="71"/>
+      <c r="U31" s="70"/>
       <c r="V31" s="42"/>
       <c r="W31" s="18"/>
       <c r="X31" s="62"/>
@@ -3905,31 +3946,31 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32" s="88" t="s">
-        <v>228</v>
+        <v>187</v>
+      </c>
+      <c r="G32" s="87" t="s">
+        <v>189</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="I32" s="65">
+        <v>117</v>
+      </c>
+      <c r="I32" s="64">
         <v>3.1</v>
       </c>
       <c r="J32" s="31">
         <v>1.8</v>
       </c>
-      <c r="K32" s="65">
+      <c r="K32" s="64">
         <v>2.1</v>
       </c>
       <c r="L32" s="25">
         <v>0.17</v>
       </c>
-      <c r="M32" s="65">
+      <c r="M32" s="64">
         <v>5.01</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="O32" s="39">
         <v>467.41399999999999</v>
@@ -3937,7 +3978,7 @@
       <c r="P32" s="31">
         <v>8.24</v>
       </c>
-      <c r="Q32" s="65">
+      <c r="Q32" s="64">
         <v>1.5</v>
       </c>
       <c r="R32" s="31">
@@ -3949,7 +3990,7 @@
       <c r="T32" s="25">
         <v>0.41</v>
       </c>
-      <c r="U32" s="65">
+      <c r="U32" s="64">
         <v>3.26</v>
       </c>
       <c r="V32" s="14">
@@ -3975,41 +4016,41 @@
       <c r="B33" s="9">
         <v>0.43</v>
       </c>
-      <c r="C33" s="93">
+      <c r="C33" s="92">
         <v>39</v>
       </c>
-      <c r="D33" s="92">
+      <c r="D33" s="91">
         <v>18</v>
       </c>
-      <c r="E33" s="91">
+      <c r="E33" s="90">
         <v>0.21099999999999999</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G33" s="89" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="I33" s="65">
+        <v>188</v>
+      </c>
+      <c r="G33" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="64">
         <v>2.8</v>
       </c>
-      <c r="J33" s="94">
+      <c r="J33" s="93">
         <v>1.7</v>
       </c>
-      <c r="K33" s="94">
+      <c r="K33" s="93">
         <v>1.8</v>
       </c>
-      <c r="L33" s="91">
+      <c r="L33" s="90">
         <v>0.15</v>
       </c>
-      <c r="M33" s="65">
+      <c r="M33" s="64">
         <v>4.72</v>
       </c>
-      <c r="N33" s="95" t="s">
-        <v>171</v>
+      <c r="N33" s="94" t="s">
+        <v>134</v>
       </c>
       <c r="O33" s="39">
         <v>484.57339999999999</v>
@@ -4017,82 +4058,82 @@
       <c r="P33" s="31">
         <v>8.09</v>
       </c>
-      <c r="Q33" s="65">
+      <c r="Q33" s="64">
         <v>1.3</v>
       </c>
-      <c r="R33" s="94">
+      <c r="R33" s="93">
         <v>31.1</v>
       </c>
-      <c r="S33" s="92">
+      <c r="S33" s="91">
         <v>130.19999999999999</v>
       </c>
-      <c r="T33" s="91">
+      <c r="T33" s="90">
         <v>0.52</v>
       </c>
-      <c r="U33" s="96">
+      <c r="U33" s="95">
         <v>3.72</v>
       </c>
-      <c r="V33" s="97">
+      <c r="V33" s="96">
         <v>0.22</v>
       </c>
-      <c r="W33" s="97" t="s">
+      <c r="W33" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="X33" s="98">
+      <c r="X33" s="97">
         <v>1728</v>
       </c>
-      <c r="Y33" s="99" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z33" s="98">
+      <c r="Y33" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z33" s="97">
         <v>3.2</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
+      <c r="B34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Q37" s="67" t="s">
-        <v>190</v>
+      <c r="Q37" s="66" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
+      <c r="A38" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="114"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="114"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4132,20 +4173,20 @@
       <c r="B1" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="112" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="49" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="H1" s="49" t="s">
         <v>34</v>
@@ -4157,17 +4198,17 @@
         <v>39</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="78" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="49" t="s">
@@ -4199,10 +4240,10 @@
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="49" t="s">
@@ -4211,33 +4252,33 @@
       <c r="E3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="79" t="s">
-        <v>142</v>
+      <c r="F3" s="78" t="s">
+        <v>105</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>142</v>
+      <c r="H3" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="78" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="52" t="s">
@@ -4269,8 +4310,8 @@
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="81"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="5"/>
@@ -4278,16 +4319,16 @@
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
-      <c r="K5" s="112"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="81" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="24">
@@ -4319,10 +4360,10 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="80">
         <v>0.27</v>
       </c>
       <c r="D7" s="24">
@@ -4354,10 +4395,10 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="81" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="24">
@@ -4387,8 +4428,8 @@
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="55"/>
       <c r="E9" s="54"/>
       <c r="F9" s="54"/>
@@ -4402,8 +4443,8 @@
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="81"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="59"/>
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
@@ -4417,81 +4458,81 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="83" t="s">
-        <v>234</v>
+      <c r="C11" s="82" t="s">
+        <v>195</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="65">
+        <v>109</v>
+      </c>
+      <c r="E11" s="64">
         <v>5.3</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="G11" s="34">
         <v>516</v>
       </c>
-      <c r="H11" s="72" t="s">
-        <v>186</v>
+      <c r="H11" s="71" t="s">
+        <v>149</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="83" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="65" t="s">
-        <v>181</v>
+        <v>110</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>144</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="72" t="s">
-        <v>187</v>
+      <c r="H12" s="71" t="s">
+        <v>150</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="42"/>
-      <c r="E13" s="71"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="71"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="42"/>
       <c r="J13" s="32"/>
       <c r="K13" s="55"/>
@@ -4500,13 +4541,13 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="86"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="45"/>
-      <c r="E14" s="70"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="19"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="70"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="45"/>
       <c r="J14" s="33"/>
       <c r="K14" s="35"/>
@@ -4515,26 +4556,26 @@
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="85" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>182</v>
+        <v>111</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>145</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="65" t="s">
-        <v>188</v>
+      <c r="H15" s="64" t="s">
+        <v>151</v>
       </c>
       <c r="I15" s="25">
         <v>0.46</v>
@@ -4543,32 +4584,32 @@
         <v>0.3</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="85">
         <v>344</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>183</v>
+        <v>112</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>146</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="64">
         <v>1.5</v>
       </c>
       <c r="I16" s="25">
@@ -4578,32 +4619,32 @@
         <v>0.216</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="85" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>184</v>
+        <v>109</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>147</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="64">
         <v>1.6</v>
       </c>
       <c r="I17" s="25">
@@ -4613,33 +4654,33 @@
         <v>0.184</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="86" t="s">
-        <v>235</v>
+      <c r="C18" s="85" t="s">
+        <v>196</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>184</v>
+        <v>113</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>147</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="65" t="s">
-        <v>163</v>
+      <c r="H18" s="64" t="s">
+        <v>126</v>
       </c>
       <c r="I18" s="25">
         <v>0.54600000000000004</v>
@@ -4648,18 +4689,18 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="65"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="11"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="65"/>
+      <c r="H19" s="64"/>
       <c r="I19" s="25"/>
       <c r="J19" s="31"/>
       <c r="K19" s="55"/>
@@ -4668,13 +4709,13 @@
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="70"/>
+      <c r="E20" s="69"/>
       <c r="F20" s="19"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="70"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="45"/>
       <c r="J20" s="33"/>
       <c r="K20" s="35"/>
@@ -4683,13 +4724,13 @@
       <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="65"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="11"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="65"/>
+      <c r="H21" s="64"/>
       <c r="I21" s="25"/>
       <c r="J21" s="34"/>
       <c r="K21" s="35"/>
@@ -4698,32 +4739,32 @@
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="82" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="65">
+        <v>109</v>
+      </c>
+      <c r="E22" s="64">
         <v>5.8</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="64">
         <v>3.2</v>
       </c>
       <c r="I22" s="25">
         <v>0.45</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="K22" s="35" t="s">
         <v>85</v>
@@ -4733,32 +4774,32 @@
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="82" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="65">
+        <v>109</v>
+      </c>
+      <c r="E23" s="64">
         <v>5.4</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="G23" s="34">
         <v>501</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="64">
         <v>1.4</v>
       </c>
       <c r="I23" s="25">
         <v>0.53</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="K23" s="35">
         <v>7.1999999999999995E-2</v>
@@ -4768,83 +4809,83 @@
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="82" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="65">
+        <v>114</v>
+      </c>
+      <c r="E24" s="64">
         <v>5.0999999999999996</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G24" s="34">
         <v>517.03710000000001</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="64">
         <v>1.4</v>
       </c>
       <c r="I24" s="25">
         <v>0.4</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="83" t="s">
-        <v>236</v>
+      <c r="C25" s="82" t="s">
+        <v>197</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="65">
+        <v>112</v>
+      </c>
+      <c r="E25" s="64">
         <v>4.9000000000000004</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="G25" s="34">
         <v>477</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="64">
         <v>1.7</v>
       </c>
       <c r="I25" s="25">
         <v>0.54</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="83"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="25"/>
-      <c r="E26" s="65"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="11"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="65"/>
+      <c r="H26" s="64"/>
       <c r="I26" s="25"/>
       <c r="J26" s="40"/>
       <c r="K26" s="35"/>
@@ -4853,32 +4894,32 @@
       <c r="A27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="83" t="s">
-        <v>237</v>
+      <c r="C27" s="82" t="s">
+        <v>198</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="65">
+        <v>112</v>
+      </c>
+      <c r="E27" s="64">
         <v>5.7</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="G27" s="34">
         <v>577.88130000000001</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H27" s="64">
         <v>4</v>
       </c>
       <c r="I27" s="25">
         <v>0.47</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="K27" s="35">
         <v>7.8E-2</v>
@@ -4888,67 +4929,67 @@
       <c r="A28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="82" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="65">
+        <v>115</v>
+      </c>
+      <c r="E28" s="64">
         <v>5.5</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G28" s="34">
         <v>517.96460000000002</v>
       </c>
-      <c r="H28" s="65">
+      <c r="H28" s="64">
         <v>1.6</v>
       </c>
       <c r="I28" s="25">
         <v>0.51</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="82" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="65">
+        <v>111</v>
+      </c>
+      <c r="E29" s="64">
         <v>5.4</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="G29" s="34">
         <v>530.02260000000001</v>
       </c>
-      <c r="H29" s="65" t="s">
-        <v>156</v>
+      <c r="H29" s="64" t="s">
+        <v>119</v>
       </c>
       <c r="I29" s="25">
         <v>0.59</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="K29" s="35">
         <v>8.8999999999999996E-2</v>
@@ -4958,16 +4999,16 @@
       <c r="A30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="82" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="65">
+        <v>116</v>
+      </c>
+      <c r="E30" s="64">
         <v>5.6</v>
       </c>
       <c r="F30" s="21">
@@ -4976,55 +5017,55 @@
       <c r="G30" s="34">
         <v>529.55880000000002</v>
       </c>
-      <c r="H30" s="65" t="s">
-        <v>189</v>
+      <c r="H30" s="64" t="s">
+        <v>152</v>
       </c>
       <c r="I30" s="25">
         <v>0.55000000000000004</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="61"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="85"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="42"/>
-      <c r="E31" s="71"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="18"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="71"/>
+      <c r="H31" s="70"/>
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
       <c r="K31" s="62"/>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="103" t="s">
-        <v>226</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>228</v>
+      <c r="B32" s="102" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>189</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="65">
+        <v>117</v>
+      </c>
+      <c r="E32" s="64">
         <v>5.01</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="G32" s="34">
         <v>467.41399999999999</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="64">
         <v>1.5</v>
       </c>
       <c r="I32" s="25">
@@ -5038,71 +5079,71 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="101" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" s="89" t="s">
-        <v>229</v>
-      </c>
-      <c r="D33" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="96">
+      <c r="B33" s="100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="95">
         <v>4.72</v>
       </c>
-      <c r="F33" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" s="92">
+      <c r="F33" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="91">
         <v>484.57339999999999</v>
       </c>
-      <c r="H33" s="96">
+      <c r="H33" s="95">
         <v>1.3</v>
       </c>
-      <c r="I33" s="91">
+      <c r="I33" s="90">
         <v>0.52</v>
       </c>
-      <c r="J33" s="97">
+      <c r="J33" s="96">
         <v>0.22</v>
       </c>
-      <c r="K33" s="98" t="s">
-        <v>211</v>
+      <c r="K33" s="97" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
+      <c r="A36" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="114"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="114"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5114,129 +5155,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D13954B-F096-9243-BDCC-DEEAFA1248CF}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>89</v>
+        <v>211</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>213</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>91</v>
+        <v>209</v>
+      </c>
+      <c r="D2" s="116" t="s">
+        <v>212</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="49"/>
       <c r="H2" s="49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>86</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49" t="s">
-        <v>87</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="49"/>
       <c r="H3" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>18</v>
       </c>
@@ -5246,16 +5296,16 @@
       <c r="C4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="117" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="51" t="s">
+      <c r="F4" s="51" t="s">
         <v>33</v>
       </c>
+      <c r="G4" s="52"/>
       <c r="H4" s="51" t="s">
         <v>33</v>
       </c>
@@ -5268,23 +5318,27 @@
       <c r="K4" s="51" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L4" s="51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -5292,753 +5346,790 @@
         <v>0.27</v>
       </c>
       <c r="C6" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="D6" s="24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D6" s="119">
+        <v>0.99</v>
+      </c>
+      <c r="E6" s="24">
         <v>0.87</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.99</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7">
         <v>0.88</v>
       </c>
-      <c r="C7" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0.49</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="118">
+        <v>0.23</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="7">
         <v>0.08</v>
       </c>
-      <c r="C8" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="24">
+      <c r="C8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="118">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="24">
         <v>0.11</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="27"/>
       <c r="H8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
         <v>0.59</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="53"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="54"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
-    </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="58"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="58"/>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58"/>
-    </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L10" s="58"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="73">
+      <c r="B11" s="72">
         <v>38</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>11</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="75"/>
+      <c r="E11" s="34">
         <v>7</v>
       </c>
-      <c r="E11" s="14">
-        <v>1.77</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="28"/>
       <c r="H11" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="11">
+        <v>232</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" s="11">
         <v>4.1900000000000004</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K11" s="11"/>
+      <c r="L11" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="72">
         <v>43</v>
       </c>
-      <c r="C12" s="14">
-        <v>13</v>
-      </c>
-      <c r="D12" s="25">
+      <c r="C12" s="11">
+        <v>12</v>
+      </c>
+      <c r="D12" s="75"/>
+      <c r="E12" s="34">
         <v>7</v>
       </c>
-      <c r="E12" s="14">
-        <v>3.04</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="F12" s="11">
+        <v>3</v>
+      </c>
+      <c r="G12" s="28"/>
       <c r="H12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="5">
+        <v>88</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" s="5">
         <v>4.99</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K12" s="35"/>
+      <c r="L12" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="74"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="75"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="19"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="72">
         <v>51</v>
       </c>
-      <c r="C15" s="14">
-        <v>12</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="C15" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="34">
         <v>7</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="11">
+      <c r="F15" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="11">
         <v>27.2</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="11">
         <v>6.45</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>6.52</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K15" s="11"/>
+      <c r="L15" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="72">
         <v>39</v>
       </c>
-      <c r="C16" s="14">
-        <v>11</v>
-      </c>
-      <c r="D16" s="25">
+      <c r="C16" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="75"/>
+      <c r="E16" s="34">
         <v>7</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="11">
-        <v>19.2</v>
-      </c>
+      <c r="F16" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="28"/>
       <c r="H16" s="11">
+        <v>20</v>
+      </c>
+      <c r="I16" s="11">
         <v>10.4</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J16" s="11">
         <v>4.17</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K16" s="11"/>
+      <c r="L16" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="14">
-        <v>11</v>
-      </c>
-      <c r="D17" s="25">
+      <c r="B17" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="75"/>
+      <c r="E17" s="34">
         <v>6</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="11">
-        <v>20.9</v>
-      </c>
+      <c r="F17" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="28"/>
       <c r="H17" s="11">
+        <v>21</v>
+      </c>
+      <c r="I17" s="11">
         <v>4.5599999999999996</v>
       </c>
-      <c r="I17" s="11">
+      <c r="J17" s="11">
         <v>5.21</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K17" s="11"/>
+      <c r="L17" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="14">
-        <v>14</v>
-      </c>
-      <c r="D18" s="25">
+      <c r="B18" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="75"/>
+      <c r="E18" s="34">
         <v>9</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="11">
-        <v>17.899999999999999</v>
-      </c>
+      <c r="F18" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="28"/>
       <c r="H18" s="11">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11">
         <v>9.07</v>
       </c>
-      <c r="I18" s="11">
+      <c r="J18" s="11">
         <v>3.1</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K18" s="11"/>
+      <c r="L18" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="73"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="11"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="19"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="73"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="11"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="73">
+      <c r="B22" s="72">
         <v>39</v>
       </c>
-      <c r="C22" s="76">
-        <v>10</v>
-      </c>
-      <c r="D22" s="25">
+      <c r="C22" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="34">
         <v>11</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="23" t="s">
-        <v>129</v>
-      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="28"/>
       <c r="H22" s="23" t="s">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="73">
+      <c r="B23" s="72">
         <v>37</v>
       </c>
-      <c r="C23" s="76">
-        <v>15</v>
-      </c>
-      <c r="D23" s="25">
+      <c r="C23" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="75"/>
+      <c r="E23" s="34">
         <v>5</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="23" t="s">
-        <v>131</v>
-      </c>
+      <c r="F23" s="11">
+        <v>2</v>
+      </c>
+      <c r="G23" s="28"/>
       <c r="H23" s="23" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="76">
-        <v>10</v>
-      </c>
-      <c r="D24" s="25">
+      <c r="B24" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="34">
         <v>7</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="23" t="s">
-        <v>130</v>
-      </c>
+      <c r="F24" s="11">
+        <v>6</v>
+      </c>
+      <c r="G24" s="28"/>
       <c r="H24" s="23" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="73">
+      <c r="B25" s="72">
         <v>43</v>
       </c>
-      <c r="C25" s="76">
-        <v>16</v>
-      </c>
-      <c r="D25" s="25">
+      <c r="C25" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="75"/>
+      <c r="E25" s="34">
         <v>8</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="23" t="s">
-        <v>96</v>
-      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="28"/>
       <c r="H25" s="23" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="23"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
-    </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L26" s="23"/>
+    </row>
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="73">
+      <c r="B27" s="72">
         <v>67</v>
       </c>
-      <c r="C27" s="76">
-        <v>10</v>
-      </c>
-      <c r="D27" s="25">
+      <c r="C27" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="34">
         <v>5</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="23" t="s">
-        <v>97</v>
-      </c>
+      <c r="F27" s="11">
+        <v>2</v>
+      </c>
+      <c r="G27" s="28"/>
       <c r="H27" s="23" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="73">
+      <c r="B28" s="72">
         <v>41</v>
       </c>
-      <c r="C28" s="76">
-        <v>15</v>
-      </c>
-      <c r="D28" s="25">
+      <c r="C28" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="75"/>
+      <c r="E28" s="34">
         <v>9</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="23" t="s">
-        <v>98</v>
-      </c>
+      <c r="F28" s="11">
+        <v>2</v>
+      </c>
+      <c r="G28" s="28"/>
       <c r="H28" s="23" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="72">
         <v>43</v>
       </c>
-      <c r="C29" s="76">
-        <v>10</v>
-      </c>
-      <c r="D29" s="25">
+      <c r="C29" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="75"/>
+      <c r="E29" s="34">
         <v>6</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="23" t="s">
-        <v>99</v>
-      </c>
+      <c r="F29" s="11">
+        <v>4</v>
+      </c>
+      <c r="G29" s="28"/>
       <c r="H29" s="23" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="73" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="76">
-        <v>16</v>
-      </c>
-      <c r="D30" s="25">
+      <c r="B30" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="75"/>
+      <c r="E30" s="34">
         <v>9</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="23" t="s">
-        <v>132</v>
-      </c>
+      <c r="F30" s="11">
+        <v>5</v>
+      </c>
+      <c r="G30" s="28"/>
       <c r="H30" s="23" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="61"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="18"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="73" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" s="14">
+      <c r="B32" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="11">
         <v>29</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="75"/>
+      <c r="E32" s="34">
         <v>24</v>
       </c>
-      <c r="E32" s="14">
+      <c r="F32" s="11">
         <v>2</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12">
         <v>59</v>
       </c>
-      <c r="H32" s="12">
-        <v>33.700000000000003</v>
-      </c>
       <c r="I32" s="12">
+        <v>34</v>
+      </c>
+      <c r="J32" s="12">
         <v>8.06</v>
       </c>
-      <c r="K32" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L32" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" s="63">
+      <c r="B33" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="39">
         <v>16</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="123"/>
+      <c r="E33" s="34">
         <v>12</v>
       </c>
-      <c r="E33" s="14">
+      <c r="F33" s="11">
         <v>1</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="12">
-        <v>22.89</v>
-      </c>
+      <c r="G33" s="20"/>
       <c r="H33" s="12">
-        <v>7.69</v>
+        <v>23</v>
       </c>
       <c r="I33" s="12">
+        <v>8</v>
+      </c>
+      <c r="J33" s="12">
         <v>4.67</v>
       </c>
-      <c r="K33" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="114"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="114"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
+      <c r="L33" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A38:H40"/>
+    <mergeCell ref="A38:I40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
